--- a/subsetting_results/subsetting-skalpeltasql-spider2-Native-gpt41nano-vectorsort.xlsx
+++ b/subsetting_results/subsetting-skalpeltasql-spider2-Native-gpt41nano-vectorsort.xlsx
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.08066690800479</v>
+        <v>18.13602405396523</v>
       </c>
       <c r="E2" t="n">
-        <v>808</v>
+        <v>896</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -614,7 +614,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.56869353899674</v>
+        <v>15.37737875501625</v>
       </c>
       <c r="E3" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.country_code', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.application_number', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.country_code'}</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.46629088099871</v>
+        <v>17.19015939702513</v>
       </c>
       <c r="E4" t="n">
-        <v>871</v>
+        <v>901</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15.87331102599273</v>
+        <v>14.00304504897213</v>
       </c>
       <c r="E5" t="n">
-        <v>846</v>
+        <v>799</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.citation', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.PUBLICATIONS.grant_date', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.grant_date', 'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.PUBLICATIONS.application_number', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.citation'}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.09018906200072</v>
+        <v>13.87251146096969</v>
       </c>
       <c r="E6" t="n">
-        <v>838</v>
+        <v>743</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.84393133499543</v>
+        <v>13.52700149599696</v>
       </c>
       <c r="E7" t="n">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.41949559698696</v>
+        <v>16.66475698800059</v>
       </c>
       <c r="E8" t="n">
-        <v>1178</v>
+        <v>1096</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS', 'PATENTS.PATENTS.CPC_DEFINITION'}</t>
+          <t>{'PATENTS.PATENTS.CPC_DEFINITION', 'PATENTS.PATENTS.PUBLICATIONS'}</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.CPC_DEFINITION.parents', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.application_number', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.CPC_DEFINITION.parents'}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15.75577883700316</v>
+        <v>16.44312755903229</v>
       </c>
       <c r="E9" t="n">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS', 'PATENTS.PATENTS.CPC_DEFINITION'}</t>
+          <t>{'PATENTS.PATENTS.CPC_DEFINITION', 'PATENTS.PATENTS.PUBLICATIONS'}</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.CPC_DEFINITION.parents', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.application_number', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.CPC_DEFINITION.parents'}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15.41201340300904</v>
+        <v>20.43537200201536</v>
       </c>
       <c r="E10" t="n">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS', 'PATENTS.PATENTS.CPC_DEFINITION'}</t>
+          <t>{'PATENTS.PATENTS.CPC_DEFINITION', 'PATENTS.PATENTS.PUBLICATIONS'}</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.citation', 'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.PUBLICATIONS.citation'}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17.25740710999526</v>
+        <v>15.18177788000321</v>
       </c>
       <c r="E11" t="n">
-        <v>873</v>
+        <v>835</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.embedding_v1', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.application_number'}</t>
+          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.application_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.embedding_v1'}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19.74361758500163</v>
+        <v>17.42746668501059</v>
       </c>
       <c r="E12" t="n">
-        <v>1062</v>
+        <v>1027</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.cpc', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.family_id', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.citation', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.cpc', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.cited_by', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_date', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.country_code', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.ipc'}</t>
+          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.cited_by', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.family_id', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_date', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.cpc', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.citation', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.country_code', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.ipc', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.cpc'}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.06924014700053</v>
+        <v>19.26600494398735</v>
       </c>
       <c r="E13" t="n">
-        <v>1101</v>
+        <v>1156</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.APPLICATION', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT', 'PATENTSVIEW.PATENTSVIEW.PATENT'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.PATENT', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.APPLICATION'}</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.date', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.citation_id', 'PATENTSVIEW.PATENTSVIEW.PATENT.title', 'PATENTSVIEW.PATENTSVIEW.PATENT.date', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.patent_id', 'PATENTSVIEW.PATENTSVIEW.PATENT.abstract', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.date'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.PATENT.title', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.citation_id', 'PATENTSVIEW.PATENTSVIEW.PATENT.date', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.date', 'PATENTSVIEW.PATENTSVIEW.PATENT.abstract', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.date'}</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21.41145598501316</v>
+        <v>23.74076924199471</v>
       </c>
       <c r="E14" t="n">
-        <v>1431</v>
+        <v>1364</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.APPLICATION', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.APPLICATION', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT'}</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18.13573945000826</v>
+        <v>19.5559965739958</v>
       </c>
       <c r="E15" t="n">
-        <v>1271</v>
+        <v>1307</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.APPLICATION', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT', 'PATENTSVIEW.PATENTSVIEW.PATENT', 'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT', 'PATENTSVIEW.PATENTSVIEW.PATENT', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.APPLICATION'}</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.date', 'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT.text', 'PATENTSVIEW.PATENTSVIEW.PATENT.title', 'PATENTSVIEW.PATENTSVIEW.PATENT.date', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.date', 'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT.patent_id'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.PATENT.title', 'PATENTSVIEW.PATENTSVIEW.PATENT.date', 'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT.patent_id', 'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT.text', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.date', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.date'}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14.8865438770008</v>
+        <v>14.50334544299403</v>
       </c>
       <c r="E16" t="n">
-        <v>820</v>
+        <v>725</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS_DATE.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS_DATE.GITHUB_REPOS.LANGUAGES.repo_name'}</t>
+          <t>{'GITHUB_REPOS_DATE.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS_DATE.GITHUB_REPOS.LANGUAGES.language'}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18.25652095599798</v>
+        <v>18.03139384195674</v>
       </c>
       <c r="E17" t="n">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1904,10 +1904,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16.38878975300759</v>
+        <v>17.55093747499632</v>
       </c>
       <c r="E18" t="n">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS_DATE.MONTH._201706', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_FILES', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_CONTENTS'}</t>
+          <t>{'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_FILES', 'GITHUB_REPOS_DATE.MONTH._201706', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_CONTENTS'}</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16.50159636000171</v>
+        <v>17.84594039601507</v>
       </c>
       <c r="E19" t="n">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS'}</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path'}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>16.15725252901029</v>
+        <v>19.89794142101891</v>
       </c>
       <c r="E20" t="n">
-        <v>943</v>
+        <v>1144</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES'}</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.content', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.content', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name'}</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21.28677766800683</v>
+        <v>33.9499466639827</v>
       </c>
       <c r="E21" t="n">
         <v>732</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES'}</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.content', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.content', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name'}</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>23.07284481399984</v>
+        <v>19.53849034494488</v>
       </c>
       <c r="E22" t="n">
-        <v>934</v>
+        <v>1255</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS', 'GITHUB_REPOS.GITHUB_REPOS.LICENSES'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS', 'GITHUB_REPOS.GITHUB_REPOS.LICENSES', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES'}</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.message', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LICENSES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.repo_name'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.LICENSES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.message', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name'}</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12.50941600000078</v>
+        <v>12.40636631997768</v>
       </c>
       <c r="E23" t="n">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17.33669515499787</v>
+        <v>18.42753113200888</v>
       </c>
       <c r="E24" t="n">
-        <v>1213</v>
+        <v>1193</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES'}</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.commit'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.commit', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name'}</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13.10953160900681</v>
+        <v>13.82951295602834</v>
       </c>
       <c r="E25" t="n">
-        <v>700</v>
+        <v>745</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS'}</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path'}</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13.75088814100309</v>
+        <v>14.97407478501555</v>
       </c>
       <c r="E26" t="n">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_drug_cost', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.generic_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.nppes_provider_state', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_day_supply', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_claim_count', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.drug_name'}</t>
+          <t>{'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_day_supply', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.generic_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_claim_count', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.nppes_provider_state', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.drug_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_drug_cost'}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13.26220627299335</v>
+        <v>12.95795492100297</v>
       </c>
       <c r="E27" t="n">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_medicare.inpatient_charges_2014', 'bigquery-public-data.cms_medicare.outpatient_charges_2014'}</t>
+          <t>{'bigquery-public-data.cms_medicare.outpatient_charges_2014', 'bigquery-public-data.cms_medicare.inpatient_charges_2014'}</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_medicare.inpatient_charges_2014.average_medicare_payments', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.outpatient_services', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.average_total_payments', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.total_discharges', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_name', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_city', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_city', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_state', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_id', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_id', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.average_total_payments', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_state', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_name'}</t>
+          <t>{'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_name', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_state', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_id', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_state', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.total_discharges', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_name', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.outpatient_services', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.average_medicare_payments', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_id', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.average_total_payments', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_city', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.average_total_payments', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_city'}</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -2744,10 +2744,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13.30536777999077</v>
+        <v>13.43791865196545</v>
       </c>
       <c r="E28" t="n">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_medicare.part_d_prescriber_2014.nppes_provider_state', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_claim_count', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.drug_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_drug_cost'}</t>
+          <t>{'bigquery-public-data.cms_medicare.part_d_prescriber_2014.drug_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_drug_cost', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_claim_count', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.nppes_provider_state'}</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -2828,10 +2828,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>16.63624650699785</v>
+        <v>16.62016859702999</v>
       </c>
       <c r="E29" t="n">
-        <v>1206</v>
+        <v>1257</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.concept', 'bigquery-public-data.cms_synthetic_patient_data_omop.person', 'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship'}</t>
+          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence', 'bigquery-public-data.cms_synthetic_patient_data_omop.person', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship'}</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.ancestor_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.descendant_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence.condition_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.person.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship.concept_id_2', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_code', 'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship.concept_id_1'}</t>
+          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.person.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.ancestor_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence.condition_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship.concept_id_2', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship.concept_id_1', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.descendant_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_code'}</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>22.05703412600269</v>
+        <v>18.83632844098611</v>
       </c>
       <c r="E30" t="n">
-        <v>1428</v>
+        <v>1105</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.concept', 'bigquery-public-data.cms_synthetic_patient_data_omop.person', 'bigquery-public-data.cms_synthetic_patient_data_omop.drug_exposure', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor'}</t>
+          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.person', 'bigquery-public-data.cms_synthetic_patient_data_omop.drug_exposure', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept'}</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.drug_exposure.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.person.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.descendant_concept_id'}</t>
+          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.descendant_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.person.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.drug_exposure.person_id'}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15.8855924620002</v>
+        <v>17.7590411240235</v>
       </c>
       <c r="E31" t="n">
-        <v>928</v>
+        <v>963</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_historic_severe_storms.storms_1985', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994'}</t>
+          <t>{'bigquery-public-data.noaa_historic_severe_storms.storms_1993', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980'}</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_historic_severe_storms.storms_1995.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982.event_id'}</t>
+          <t>{'bigquery-public-data.noaa_historic_severe_storms.storms_1987.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992.event_id'}</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19.09281114199257</v>
+        <v>15.22425590298371</v>
       </c>
       <c r="E32" t="n">
-        <v>952</v>
+        <v>885</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_gsod.gsod2022', 'bigquery-public-data.noaa_gsod.gsod2023', 'bigquery-public-data.noaa_gsod.stations'}</t>
+          <t>{'bigquery-public-data.noaa_gsod.stations', 'bigquery-public-data.noaa_gsod.gsod2022', 'bigquery-public-data.noaa_gsod.gsod2023'}</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_gsod.gsod2023.stn', 'bigquery-public-data.noaa_gsod.stations.usaf', 'bigquery-public-data.noaa_gsod.stations.name', 'bigquery-public-data.noaa_gsod.gsod2022.stn'}</t>
+          <t>{'bigquery-public-data.noaa_gsod.gsod2023.stn', 'bigquery-public-data.noaa_gsod.stations.usaf', 'bigquery-public-data.noaa_gsod.gsod2022.stn', 'bigquery-public-data.noaa_gsod.stations.name'}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3164,10 +3164,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>21.8133117039979</v>
+        <v>19.82743219699478</v>
       </c>
       <c r="E33" t="n">
-        <v>1403</v>
+        <v>1415</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_gsod.gsod2023', 'bigquery-public-data.noaa_gsod.stations'}</t>
+          <t>{'bigquery-public-data.noaa_gsod.stations', 'bigquery-public-data.noaa_gsod.gsod2023'}</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_gsod.gsod2023.stn', 'bigquery-public-data.noaa_gsod.gsod2023.wban', 'bigquery-public-data.noaa_gsod.stations.country', 'bigquery-public-data.noaa_gsod.stations.usaf', 'bigquery-public-data.noaa_gsod.stations.name', 'bigquery-public-data.noaa_gsod.gsod2023.date', 'bigquery-public-data.noaa_gsod.gsod2023.temp', 'bigquery-public-data.noaa_gsod.stations.wban'}</t>
+          <t>{'bigquery-public-data.noaa_gsod.stations.wban', 'bigquery-public-data.noaa_gsod.stations.name', 'bigquery-public-data.noaa_gsod.stations.country', 'bigquery-public-data.noaa_gsod.gsod2023.date', 'bigquery-public-data.noaa_gsod.gsod2023.temp', 'bigquery-public-data.noaa_gsod.stations.usaf', 'bigquery-public-data.noaa_gsod.gsod2023.wban', 'bigquery-public-data.noaa_gsod.gsod2023.stn'}</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>15.2608429529937</v>
+        <v>17.73616178799421</v>
       </c>
       <c r="E34" t="n">
-        <v>990</v>
+        <v>1033</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014'}</t>
+          <t>{'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014'}</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>{'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_id', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_point', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.city', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.state_name', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_id', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.zip_code', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_type'}</t>
+          <t>{'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_point', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.state_name', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_point', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_type', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.city', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_id', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.zip_code'}</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17.90854319700156</v>
+        <v>17.23510454094503</v>
       </c>
       <c r="E35" t="n">
-        <v>1073</v>
+        <v>1194</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015'}</t>
+          <t>{'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES'}</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>{'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.end_station_longitude', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.starttime', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.mo', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.year', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.da', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.start_station_longitude'}</t>
+          <t>{'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.starttime', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.mo', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.year', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.start_station_longitude', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.end_station_longitude', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.da', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom'}</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -3416,10 +3416,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>22.32964623799489</v>
+        <v>22.5802325020195</v>
       </c>
       <c r="E36" t="n">
-        <v>1653</v>
+        <v>1863</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014'}</t>
+          <t>{'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS'}</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>{'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.end_station_longitude', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.wban', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS.name', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.year', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.temp', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.prcp', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.start_station_longitude', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES.borough', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.mo', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES.neighborhood', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.da', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS.wban'}</t>
+          <t>{'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES.borough', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.prcp', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.wban', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.da', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.temp', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS.wban', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.mo', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.start_station_longitude', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.end_station_longitude', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES.neighborhood', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.year', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS.name'}</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>14.28404820899596</v>
+        <v>14.51198761101114</v>
       </c>
       <c r="E37" t="n">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_gsod.gsod2009.year', 'bigquery-public-data.noaa_gsod.gsod2009.mo', 'bigquery-public-data.noaa_gsod.gsod2009.temp', 'bigquery-public-data.noaa_gsod.gsod2009.da'}</t>
+          <t>{'bigquery-public-data.noaa_gsod.gsod2009.year', 'bigquery-public-data.noaa_gsod.gsod2009.mo', 'bigquery-public-data.noaa_gsod.gsod2009.da', 'bigquery-public-data.noaa_gsod.gsod2009.temp'}</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -3584,10 +3584,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>17.16511011999683</v>
+        <v>15.99971588898916</v>
       </c>
       <c r="E38" t="n">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>{'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.geography', 'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.forecast', 'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.creation_time'}</t>
+          <t>{'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.forecast', 'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.creation_time', 'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.geography'}</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>15.14165271999082</v>
+        <v>13.99792186700506</v>
       </c>
       <c r="E39" t="n">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>18.42842978099361</v>
+        <v>16.11424811003963</v>
       </c>
       <c r="E40" t="n">
-        <v>1200</v>
+        <v>1054</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES'}</t>
+          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES'}</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.osm_id', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.id', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.geometry'}</t>
+          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.osm_id', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.id'}</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -3836,10 +3836,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15.28349451599934</v>
+        <v>18.38525864400435</v>
       </c>
       <c r="E41" t="n">
-        <v>946</v>
+        <v>991</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.osm_id', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.feature_type'}</t>
+          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.feature_type', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.osm_id'}</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>108.9767673970055</v>
+        <v>111.0477050069603</v>
       </c>
       <c r="E42" t="n">
-        <v>6343</v>
+        <v>6496</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR', 'CENSUS_BUREAU_ACS_2.GEO_US_BOUNDARIES.ZIP_CODES', 'CENSUS_BUREAU_ACS_2.CYCLISTIC.ZIP_CODES', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR'}</t>
+          <t>{'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR', 'CENSUS_BUREAU_ACS_2.CYCLISTIC.ZIP_CODES', 'CENSUS_BUREAU_ACS_2.GEO_US_BOUNDARIES.ZIP_CODES', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR'}</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>{'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR.median_income', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR.median_income', 'CENSUS_BUREAU_ACS_2.GEO_US_BOUNDARIES.ZIP_CODES.state_name', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR.median_income'}</t>
+          <t>{'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR.median_income', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR.median_income', 'CENSUS_BUREAU_ACS_2.GEO_US_BOUNDARIES.ZIP_CODES.state_name', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR.median_income'}</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>15.06481583400455</v>
+        <v>15.47950700699585</v>
       </c>
       <c r="E43" t="n">
-        <v>798</v>
+        <v>819</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.osm_id', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_US_CENSUS_PLACES.PLACES_PENNSYLVANIA.place_geom', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.geometry', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.all_tags'}</t>
+          <t>{'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_US_CENSUS_PLACES.PLACES_PENNSYLVANIA.place_geom', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.all_tags', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.osm_id', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.geometry'}</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>15.6787857409945</v>
+        <v>15.28674097300973</v>
       </c>
       <c r="E44" t="n">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP_WORLDPOP.GEO_OPENSTREETMAP.PLANET_LAYERS.geometry', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.geo_id', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.latitude_centroid', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.last_updated', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.geog', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.longitude_centroid', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.population'}</t>
+          <t>{'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.geog', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.last_updated', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.geo_id', 'GEO_OPENSTREETMAP_WORLDPOP.GEO_OPENSTREETMAP.PLANET_LAYERS.geometry', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.population', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.latitude_centroid', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.longitude_centroid'}</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>16.36387577500136</v>
+        <v>14.91476476000389</v>
       </c>
       <c r="E45" t="n">
-        <v>973</v>
+        <v>910</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS'}</t>
+          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS'}</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4256,10 +4256,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>13.49335829999472</v>
+        <v>13.57800889300415</v>
       </c>
       <c r="E46" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS'}</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.value', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.to_address', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.from_address'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.value', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.from_address', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.to_address', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.to_address'}</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>16.67728139400424</v>
+        <v>17.40269176999573</v>
       </c>
       <c r="E47" t="n">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS', 'CRYPTO.CRYPTO_BAND.LOGS', 'CRYPTO.CRYPTO_ETHEREUM.LOGS'}</t>
+          <t>{'CRYPTO.CRYPTO_BAND.LOGS', 'CRYPTO.CRYPTO_ETHEREUM.LOGS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS'}</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.log_index', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.block_number', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.data', 'CRYPTO.CRYPTO_BAND.LOGS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.transaction_hash', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.block_number', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.log_index', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.block_timestamp', 'CRYPTO.CRYPTO_BAND.LOGS.log_index', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.topics', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.topics', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.transaction_hash', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.data'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM.LOGS.block_number', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.topics', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.data', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.block_timestamp', 'CRYPTO.CRYPTO_BAND.LOGS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.log_index', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.topics', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.data', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.log_index', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.transaction_hash', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.block_number', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.transaction_hash', 'CRYPTO.CRYPTO_BAND.LOGS.log_index', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.block_timestamp'}</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>14.89467091400002</v>
+        <v>15.94862164999358</v>
       </c>
       <c r="E48" t="n">
-        <v>871</v>
+        <v>910</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_BITCOIN_CASH.OUTPUTS', 'CRYPTO.CRYPTO_DASH.INPUTS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.INPUTS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.INPUTS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.OUTPUTS', 'CRYPTO.CRYPTO_DASH.OUTPUTS'}</t>
+          <t>{'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.OUTPUTS', 'CRYPTO.CRYPTO_BITCOIN.INPUTS', 'CRYPTO.CRYPTO_BITCOIN_CASH.OUTPUTS', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.INPUTS', 'CRYPTO.CRYPTO_DASH.OUTPUTS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.INPUTS'}</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_BITCOIN.INPUTS.value', 'CRYPTO.CRYPTO_BITCOIN_CASH.OUTPUTS.value', 'CRYPTO.CRYPTO_DASH.INPUTS.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_BITCOIN_CASH.INPUTS.value', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_DASH.OUTPUTS.value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_BITCOIN.OUTPUTS.value', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_value'}</t>
+          <t>{'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_DASH.OUTPUTS.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_BITCOIN_CASH.INPUTS.value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_BITCOIN.INPUTS.value', 'CRYPTO.CRYPTO_BITCOIN_CASH.OUTPUTS.value', 'CRYPTO.CRYPTO_DASH.INPUTS.value', 'CRYPTO.CRYPTO_BITCOIN.OUTPUTS.value'}</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -4508,10 +4508,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>20.81323772799806</v>
+        <v>19.13985192298423</v>
       </c>
       <c r="E49" t="n">
-        <v>1173</v>
+        <v>1080</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS'}</t>
+          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS'}</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_value'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_count'}</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>18.23568693798734</v>
+        <v>19.81459616700886</v>
       </c>
       <c r="E50" t="n">
-        <v>1340</v>
+        <v>1049</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS'}</t>
+          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS'}</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.outputs'}</t>
+          <t>{'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.inputs'}</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>15.20122337200155</v>
+        <v>15.88448729296215</v>
       </c>
       <c r="E51" t="n">
-        <v>893</v>
+        <v>906</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_BITCOIN_CASH.BLOCKS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.BLOCKS', 'CRYPTO.CRYPTO_BAND.BLOCKS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.BLOCKS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.BLOCKS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.BLOCKS', 'CRYPTO.CRYPTO_ETHEREUM.TRACES'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES', 'CRYPTO.CRYPTO_ETHEREUM.TRACES', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.BLOCKS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.BLOCKS', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.BLOCKS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.BLOCKS', 'CRYPTO.CRYPTO_DASH.BLOCKS', 'CRYPTO.CRYPTO_BITCOIN_CASH.BLOCKS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS'}</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM.BLOCKS.miner', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.BLOCKS.miner', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.to_address', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.value', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.from_address', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.to_address'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM.BLOCKS.miner', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.to_address', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.from_address', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.to_address', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.from_address', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.BLOCKS.miner', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.from_address'}</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -4760,10 +4760,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13.37294748000568</v>
+        <v>14.67452418297762</v>
       </c>
       <c r="E52" t="n">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>{'HUMAN_GENOME_VARIANTS.HUMAN_GENOME_VARIANTS._1000_GENOMES_PHASE_3_OPTIMIZED_SCHEMA_VARIANTS_20150220.reference_bases', 'HUMAN_GENOME_VARIANTS.HUMAN_GENOME_VARIANTS._1000_GENOMES_PHASE_3_OPTIMIZED_SCHEMA_VARIANTS_20150220.start_position'}</t>
+          <t>{'HUMAN_GENOME_VARIANTS.HUMAN_GENOME_VARIANTS._1000_GENOMES_PHASE_3_OPTIMIZED_SCHEMA_VARIANTS_20150220.start_position', 'HUMAN_GENOME_VARIANTS.HUMAN_GENOME_VARIANTS._1000_GENOMES_PHASE_3_OPTIMIZED_SCHEMA_VARIANTS_20150220.reference_bases'}</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -4844,10 +4844,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>15.71475672000088</v>
+        <v>18.44493771501584</v>
       </c>
       <c r="E53" t="n">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.BLOCKS', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES'}</t>
+          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.BLOCKS', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS'}</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.BLOCKS.miner', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.value', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.to_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.value', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.from_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.to_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.from_address'}</t>
+          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.to_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.value', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.from_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.to_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.from_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.BLOCKS.miner', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.value'}</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -4928,10 +4928,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>18.83756711799651</v>
+        <v>15.53895888099214</v>
       </c>
       <c r="E54" t="n">
-        <v>1061</v>
+        <v>1026</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS'}</t>
+          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS'}</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS.address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS.to_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS.from_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS.name'}</t>
+          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS.name', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS.from_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS.to_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS.address'}</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -5012,10 +5012,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14.27574333599478</v>
+        <v>14.77838353201514</v>
       </c>
       <c r="E55" t="n">
-        <v>878</v>
+        <v>741</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ghcn_d.ghcnd_stations.longitude', 'bigquery-public-data.ghcn_d.ghcnd_stations.id', 'bigquery-public-data.ghcn_d.ghcnd_stations.name', 'bigquery-public-data.ghcn_d.ghcnd_stations.state', 'bigquery-public-data.ghcn_d.ghcnd_stations.latitude'}</t>
+          <t>{'bigquery-public-data.ghcn_d.ghcnd_stations.latitude', 'bigquery-public-data.ghcn_d.ghcnd_stations.name', 'bigquery-public-data.ghcn_d.ghcnd_stations.id', 'bigquery-public-data.ghcn_d.ghcnd_stations.state', 'bigquery-public-data.ghcn_d.ghcnd_stations.longitude'}</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>14.76893715599726</v>
+        <v>17.0736044900259</v>
       </c>
       <c r="E56" t="n">
-        <v>973</v>
+        <v>950</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ghcn_d.ghcnd_2013', 'bigquery-public-data.ghcn_d.ghcnd_2015', 'bigquery-public-data.ghcn_d.ghcnd_2014', 'bigquery-public-data.ghcn_d.ghcnd_2016'}</t>
+          <t>{'bigquery-public-data.ghcn_d.ghcnd_2015', 'bigquery-public-data.ghcn_d.ghcnd_2014', 'bigquery-public-data.ghcn_d.ghcnd_2013', 'bigquery-public-data.ghcn_d.ghcnd_2016'}</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ghcn_d.ghcnd_2016.element', 'bigquery-public-data.ghcn_d.ghcnd_2013.date', 'bigquery-public-data.ghcn_d.ghcnd_2016.value', 'bigquery-public-data.ghcn_d.ghcnd_2013.element', 'bigquery-public-data.ghcn_d.ghcnd_2013.value', 'bigquery-public-data.ghcn_d.ghcnd_2015.element', 'bigquery-public-data.ghcn_d.ghcnd_2015.value', 'bigquery-public-data.ghcn_d.ghcnd_2014.date', 'bigquery-public-data.ghcn_d.ghcnd_2014.value', 'bigquery-public-data.ghcn_d.ghcnd_2015.date', 'bigquery-public-data.ghcn_d.ghcnd_2016.date', 'bigquery-public-data.ghcn_d.ghcnd_2014.element'}</t>
+          <t>{'bigquery-public-data.ghcn_d.ghcnd_2013.value', 'bigquery-public-data.ghcn_d.ghcnd_2015.element', 'bigquery-public-data.ghcn_d.ghcnd_2013.element', 'bigquery-public-data.ghcn_d.ghcnd_2016.value', 'bigquery-public-data.ghcn_d.ghcnd_2015.date', 'bigquery-public-data.ghcn_d.ghcnd_2016.date', 'bigquery-public-data.ghcn_d.ghcnd_2013.date', 'bigquery-public-data.ghcn_d.ghcnd_2014.element', 'bigquery-public-data.ghcn_d.ghcnd_2015.value', 'bigquery-public-data.ghcn_d.ghcnd_2016.element', 'bigquery-public-data.ghcn_d.ghcnd_2014.value', 'bigquery-public-data.ghcn_d.ghcnd_2014.date'}</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -5180,10 +5180,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>14.97301948600216</v>
+        <v>16.84724226000253</v>
       </c>
       <c r="E57" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york.tree_census_1995.spc_common', 'bigquery-public-data.new_york.tree_census_1995.spc_latin', 'bigquery-public-data.new_york.tree_species.fall_color', 'bigquery-public-data.new_york.tree_species.species_scientific_name', 'bigquery-public-data.new_york.tree_census_2015.spc_latin', 'bigquery-public-data.new_york.tree_census_2015.spc_common'}</t>
+          <t>{'bigquery-public-data.new_york.tree_census_2015.spc_common', 'bigquery-public-data.new_york.tree_species.fall_color', 'bigquery-public-data.new_york.tree_census_1995.spc_latin', 'bigquery-public-data.new_york.tree_census_2015.spc_latin', 'bigquery-public-data.new_york.tree_census_1995.spc_common', 'bigquery-public-data.new_york.tree_species.species_scientific_name'}</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>20.31222759500088</v>
+        <v>25.29289526899811</v>
       </c>
       <c r="E58" t="n">
         <v>1724</v>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york.citibike_trips.start_station_latitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_datetime', 'bigquery-public-data.new_york.citibike_trips.end_station_latitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_longitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_latitude', 'bigquery-public-data.new_york.citibike_trips.end_station_longitude', 'bigquery-public-data.new_york.citibike_trips.start_station_name', 'bigquery-public-data.new_york.citibike_trips.start_station_longitude', 'bigquery-public-data.new_york.citibike_trips.end_station_name', 'bigquery-public-data.new_york.citibike_trips.tripduration', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_latitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_longitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_datetime'}</t>
+          <t>{'bigquery-public-data.new_york.citibike_trips.end_station_name', 'bigquery-public-data.new_york.citibike_trips.end_station_longitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_longitude', 'bigquery-public-data.new_york.citibike_trips.start_station_latitude', 'bigquery-public-data.new_york.citibike_trips.start_station_longitude', 'bigquery-public-data.new_york.citibike_trips.tripduration', 'bigquery-public-data.new_york.citibike_trips.end_station_latitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_latitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_latitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_datetime', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_datetime', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_longitude', 'bigquery-public-data.new_york.citibike_trips.start_station_name'}</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -5348,10 +5348,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>16.70443542099383</v>
+        <v>17.20591473899549</v>
       </c>
       <c r="E59" t="n">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_datetime', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_datetime', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_location_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_location_id'}</t>
+          <t>{'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_datetime', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_location_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_location_id', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_datetime'}</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -5432,10 +5432,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>19.6401019210025</v>
+        <v>19.68745365302311</v>
       </c>
       <c r="E60" t="n">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.tip_amount', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_name', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.trip_distance', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_location_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.total_amount', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_datetime', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_datetime', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_location_id'}</t>
+          <t>{'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_datetime', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_location_id', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_name', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.tip_amount', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.trip_distance', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.total_amount', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_location_id', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_datetime'}</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -5516,10 +5516,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>20.26794099000108</v>
+        <v>19.53200385498349</v>
       </c>
       <c r="E61" t="n">
-        <v>1634</v>
+        <v>1252</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york_subway.station_entrances.entry', 'bigquery-public-data.new_york_subway.station_entrances.station_name', 'bigquery-public-data.new_york_subway.station_entrances.ada_compliant', 'bigquery-public-data.new_york_subway.stations.station_name', 'bigquery-public-data.new_york_subway.stations.borough_name'}</t>
+          <t>{'bigquery-public-data.new_york_subway.station_entrances.ada_compliant', 'bigquery-public-data.new_york_subway.stations.borough_name', 'bigquery-public-data.new_york_subway.stations.station_name', 'bigquery-public-data.new_york_subway.station_entrances.entry', 'bigquery-public-data.new_york_subway.station_entrances.station_name'}</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -5600,10 +5600,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>12.22634139699221</v>
+        <v>14.28144493402215</v>
       </c>
       <c r="E62" t="n">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco.bikeshare_trips.end_station_id', 'bigquery-public-data.san_francisco.bikeshare_trips.start_station_id', 'bigquery-public-data.san_francisco.bikeshare_trips.bike_number', 'bigquery-public-data.san_francisco.bikeshare_trips.trip_id', 'bigquery-public-data.san_francisco.bikeshare_stations.longitude', 'bigquery-public-data.san_francisco.bikeshare_stations.latitude', 'bigquery-public-data.san_francisco.bikeshare_stations.station_id'}</t>
+          <t>{'bigquery-public-data.san_francisco.bikeshare_trips.end_station_id', 'bigquery-public-data.san_francisco.bikeshare_stations.longitude', 'bigquery-public-data.san_francisco.bikeshare_trips.bike_number', 'bigquery-public-data.san_francisco.bikeshare_trips.start_station_id', 'bigquery-public-data.san_francisco.bikeshare_trips.trip_id', 'bigquery-public-data.san_francisco.bikeshare_stations.station_id', 'bigquery-public-data.san_francisco.bikeshare_stations.latitude'}</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -5684,10 +5684,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>16.08132052600558</v>
+        <v>15.74243075400591</v>
       </c>
       <c r="E63" t="n">
-        <v>985</v>
+        <v>1001</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions'}</t>
+          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions'}</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions.region_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.member_gender', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.trip_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.region_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_date', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions.name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_name'}</t>
+          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.trip_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.region_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions.region_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions.name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.member_gender', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_date'}</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -5768,10 +5768,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>12.23736303599435</v>
+        <v>13.90118737396551</v>
       </c>
       <c r="E64" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_date', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.subscriber_type'}</t>
+          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.subscriber_type', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_date'}</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -5852,10 +5852,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>17.44022596499417</v>
+        <v>18.36885159101803</v>
       </c>
       <c r="E65" t="n">
-        <v>1080</v>
+        <v>1039</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_transit_muni.stops', 'bigquery-public-data.san_francisco_transit_muni.stop_times', 'bigquery-public-data.san_francisco_transit_muni.trips'}</t>
+          <t>{'bigquery-public-data.san_francisco_transit_muni.trips', 'bigquery-public-data.san_francisco_transit_muni.stops', 'bigquery-public-data.san_francisco_transit_muni.stop_times'}</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_transit_muni.stops.stop_name', 'bigquery-public-data.san_francisco_transit_muni.trips.trip_headsign', 'bigquery-public-data.san_francisco_transit_muni.stops.stop_id', 'bigquery-public-data.san_francisco_transit_muni.stop_times.stop_id', 'bigquery-public-data.san_francisco_transit_muni.stop_times.stop_sequence', 'bigquery-public-data.san_francisco_transit_muni.stop_times.departure_time', 'bigquery-public-data.san_francisco_transit_muni.stop_times.arrival_time', 'bigquery-public-data.san_francisco_transit_muni.trips.trip_id', 'bigquery-public-data.san_francisco_transit_muni.stop_times.trip_id'}</t>
+          <t>{'bigquery-public-data.san_francisco_transit_muni.stop_times.departure_time', 'bigquery-public-data.san_francisco_transit_muni.stop_times.trip_id', 'bigquery-public-data.san_francisco_transit_muni.stops.stop_id', 'bigquery-public-data.san_francisco_transit_muni.stop_times.stop_sequence', 'bigquery-public-data.san_francisco_transit_muni.stop_times.arrival_time', 'bigquery-public-data.san_francisco_transit_muni.stop_times.stop_id', 'bigquery-public-data.san_francisco_transit_muni.trips.trip_headsign', 'bigquery-public-data.san_francisco_transit_muni.stops.stop_name', 'bigquery-public-data.san_francisco_transit_muni.trips.trip_id'}</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -5936,10 +5936,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>14.98380555800395</v>
+        <v>16.60638545599068</v>
       </c>
       <c r="E66" t="n">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions'}</t>
+          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions'}</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_geom', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_station_geom', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.station_id'}</t>
+          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_geom', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_station_geom', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec'}</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -6020,10 +6020,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>20.79794647199742</v>
+        <v>19.52611916000023</v>
       </c>
       <c r="E67" t="n">
-        <v>1267</v>
+        <v>1160</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_sfpd_incidents.sfpd_incidents.longitude', 'bigquery-public-data.san_francisco_neighborhoods.boundaries.neighborhood', 'bigquery-public-data.san_francisco_neighborhoods.boundaries.neighborhood_geom', 'bigquery-public-data.san_francisco_sfpd_incidents.sfpd_incidents.latitude'}</t>
+          <t>{'bigquery-public-data.san_francisco_neighborhoods.boundaries.neighborhood', 'bigquery-public-data.san_francisco_sfpd_incidents.sfpd_incidents.longitude', 'bigquery-public-data.san_francisco_neighborhoods.boundaries.neighborhood_geom', 'bigquery-public-data.san_francisco_sfpd_incidents.sfpd_incidents.latitude'}</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>15.46368407399859</v>
+        <v>17.03530757001135</v>
       </c>
       <c r="E68" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>{'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_REGIONS', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_STATION_INFO'}</t>
+          <t>{'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_STATION_INFO', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_REGIONS'}</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>{'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.start_station_name', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.subscriber_type', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.bike_number', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.duration_sec', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.trip_id', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_STATION_INFO.name', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.member_birth_year', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_REGIONS.name', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.member_gender'}</t>
+          <t>{'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.member_birth_year', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.subscriber_type', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.bike_number', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.member_gender', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.trip_id', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.duration_sec', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.start_station_name', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_STATION_INFO.name', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_REGIONS.name'}</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>15.47282560200256</v>
+        <v>17.163407362008</v>
       </c>
       <c r="E69" t="n">
-        <v>1025</v>
+        <v>1074</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.age', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.last_name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.first_name'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.first_name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.age', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.last_name'}</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>16.2600353880116</v>
+        <v>17.53770893200999</v>
       </c>
       <c r="E70" t="n">
-        <v>1171</v>
+        <v>1207</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS'}</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.category', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.cost'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.category', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.cost'}</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>13.48293750600715</v>
+        <v>14.69539389002603</v>
       </c>
       <c r="E71" t="n">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.age', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.first_name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.last_name'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.age', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.last_name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.first_name'}</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -6440,10 +6440,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>14.89630789701187</v>
+        <v>15.52862382604508</v>
       </c>
       <c r="E72" t="n">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS'}</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.email', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.num_of_item', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.traffic_source', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.country', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.num_of_item', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.country', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.traffic_source', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.email'}</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -6524,10 +6524,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>17.80024572501134</v>
+        <v>17.69269656104734</v>
       </c>
       <c r="E73" t="n">
-        <v>1062</v>
+        <v>1097</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.DISTRIBUTION_CENTERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.DISTRIBUTION_CENTERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS'}</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_distribution_center_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.country', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.DISTRIBUTION_CENTERS.name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_department', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_retail_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.cost', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_category', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.inventory_item_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_retail_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_department', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_category', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.cost', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.DISTRIBUTION_CENTERS.name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_distribution_center_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.inventory_item_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.country'}</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -6608,10 +6608,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>20.58054575799906</v>
+        <v>22.67550669901539</v>
       </c>
       <c r="E74" t="n">
-        <v>1258</v>
+        <v>1288</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS'}</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.traffic_source', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.cost'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.traffic_source', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.cost'}</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -6692,10 +6692,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>16.4025946949987</v>
+        <v>15.81256288400618</v>
       </c>
       <c r="E75" t="n">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_international.midyear_population_agespecific.population', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.country_code', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_code', 'bigquery-public-data.census_bureau_international.midyear_population.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.midyear_population'}</t>
+          <t>{'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_code', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.country_name', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.population', 'bigquery-public-data.census_bureau_international.midyear_population.midyear_population', 'bigquery-public-data.census_bureau_international.midyear_population.country_code'}</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -6776,10 +6776,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>15.89297434799664</v>
+        <v>15.55810418899637</v>
       </c>
       <c r="E76" t="n">
-        <v>946</v>
+        <v>909</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_international.midyear_population_agespecific.population', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.country_code', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_code', 'bigquery-public-data.census_bureau_international.midyear_population.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.midyear_population'}</t>
+          <t>{'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_code', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.country_name', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.population', 'bigquery-public-data.census_bureau_international.midyear_population.midyear_population', 'bigquery-public-data.census_bureau_international.midyear_population.country_code'}</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -6860,10 +6860,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>13.55209505099629</v>
+        <v>14.64649361994816</v>
       </c>
       <c r="E77" t="n">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_international.country_names_area.country_name', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates.country_name', 'bigquery-public-data.census_bureau_international.country_names_area.country_code', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates.net_migration', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates.country_code', 'bigquery-public-data.census_bureau_international.country_names_area.country_area'}</t>
+          <t>{'bigquery-public-data.census_bureau_international.birth_death_growth_rates.net_migration', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates.country_name', 'bigquery-public-data.census_bureau_international.country_names_area.country_name', 'bigquery-public-data.census_bureau_international.country_names_area.country_area', 'bigquery-public-data.census_bureau_international.country_names_area.country_code', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates.country_code'}</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -6944,10 +6944,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>17.90643586400256</v>
+        <v>21.15862736396957</v>
       </c>
       <c r="E78" t="n">
-        <v>1036</v>
+        <v>1071</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_open_data.covid19_open_data.date', 'bigquery-public-data.covid19_open_data.covid19_open_data.cumulative_confirmed'}</t>
+          <t>{'bigquery-public-data.covid19_open_data.covid19_open_data.cumulative_confirmed', 'bigquery-public-data.covid19_open_data.covid19_open_data.date'}</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -7028,10 +7028,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>16.03022455101018</v>
+        <v>16.70516598701943</v>
       </c>
       <c r="E79" t="n">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_global_population.population_by_country', 'bigquery-public-data.covid19_open_data.covid19_open_data'}</t>
+          <t>{'bigquery-public-data.covid19_open_data.covid19_open_data', 'bigquery-public-data.world_bank_global_population.population_by_country'}</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_open_data.covid19_open_data.country_name', 'bigquery-public-data.world_bank_global_population.population_by_country.year_2018', 'bigquery-public-data.covid19_open_data.covid19_open_data.cumulative_confirmed', 'bigquery-public-data.world_bank_global_population.population_by_country.country_code', 'bigquery-public-data.covid19_open_data.covid19_open_data.country_code'}</t>
+          <t>{'bigquery-public-data.world_bank_global_population.population_by_country.country_code', 'bigquery-public-data.covid19_open_data.covid19_open_data.cumulative_confirmed', 'bigquery-public-data.world_bank_global_population.population_by_country.year_2018', 'bigquery-public-data.covid19_open_data.covid19_open_data.country_code', 'bigquery-public-data.covid19_open_data.covid19_open_data.country_name'}</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -7112,10 +7112,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>16.02248686899839</v>
+        <v>16.06941053300397</v>
       </c>
       <c r="E80" t="n">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_wdi.indicators_data', 'bigquery-public-data.covid19_jhu_csse.summary'}</t>
+          <t>{'bigquery-public-data.covid19_jhu_csse.summary', 'bigquery-public-data.world_bank_wdi.indicators_data'}</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.covid19_jhu_csse.summary.confirmed', 'bigquery-public-data.world_bank_wdi.indicators_data.country_name', 'bigquery-public-data.covid19_jhu_csse.summary.country_region'}</t>
+          <t>{'bigquery-public-data.world_bank_wdi.indicators_data.country_name', 'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.covid19_jhu_csse.summary.country_region', 'bigquery-public-data.covid19_jhu_csse.summary.confirmed'}</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -7196,10 +7196,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>18.84173541200289</v>
+        <v>16.73404518194729</v>
       </c>
       <c r="E81" t="n">
-        <v>1211</v>
+        <v>990</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_nyt.us_counties', 'bigquery-public-data.covid19_nyt.us_states'}</t>
+          <t>{'bigquery-public-data.covid19_nyt.us_states', 'bigquery-public-data.covid19_nyt.us_counties'}</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_nyt.us_counties.county_fips_code', 'bigquery-public-data.covid19_nyt.us_states.state_fips_code', 'bigquery-public-data.covid19_nyt.us_counties.confirmed_cases', 'bigquery-public-data.covid19_nyt.us_counties.county', 'bigquery-public-data.covid19_nyt.us_states.confirmed_cases', 'bigquery-public-data.covid19_nyt.us_counties.state_name', 'bigquery-public-data.covid19_nyt.us_counties.date', 'bigquery-public-data.covid19_nyt.us_states.date', 'bigquery-public-data.covid19_nyt.us_states.state_name'}</t>
+          <t>{'bigquery-public-data.covid19_nyt.us_counties.confirmed_cases', 'bigquery-public-data.covid19_nyt.us_states.state_name', 'bigquery-public-data.covid19_nyt.us_counties.county_fips_code', 'bigquery-public-data.covid19_nyt.us_states.state_fips_code', 'bigquery-public-data.covid19_nyt.us_states.confirmed_cases', 'bigquery-public-data.covid19_nyt.us_counties.date', 'bigquery-public-data.covid19_nyt.us_states.date', 'bigquery-public-data.covid19_nyt.us_counties.county', 'bigquery-public-data.covid19_nyt.us_counties.state_name'}</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -7280,10 +7280,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>17.13730831199791</v>
+        <v>17.55068943096558</v>
       </c>
       <c r="E82" t="n">
-        <v>1100</v>
+        <v>1183</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -7364,10 +7364,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>15.86862252400897</v>
+        <v>18.19821100495756</v>
       </c>
       <c r="E83" t="n">
-        <v>1040</v>
+        <v>1082</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_symptom_search.symptom_search_country_weekly.symptom_anxiety', 'bigquery-public-data.covid19_symptom_search.symptom_search_country_weekly.symptom_depression'}</t>
+          <t>{'bigquery-public-data.covid19_symptom_search.symptom_search_country_weekly.symptom_depression', 'bigquery-public-data.covid19_symptom_search.symptom_search_country_weekly.symptom_anxiety'}</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -7448,10 +7448,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>66.47543539199978</v>
+        <v>63.06924159999471</v>
       </c>
       <c r="E84" t="n">
-        <v>3336</v>
+        <v>3280</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.censustract_2018_5yr', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all'}</t>
+          <t>{'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr'}</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.total_pop', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_place_id', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_1', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_2', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_2_code'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_2', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.total_pop', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_2_code', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_1', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_place_id'}</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -7532,10 +7532,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>83.67209782599821</v>
+        <v>74.0279878010042</v>
       </c>
       <c r="E85" t="n">
-        <v>5248</v>
+        <v>5177</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.county_2020_5yr.median_age', 'bigquery-public-data.covid19_usafacts.summary.deaths', 'bigquery-public-data.covid19_usafacts.summary.confirmed_cases', 'bigquery-public-data.census_bureau_acs.county_2020_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2020_5yr.total_pop', 'bigquery-public-data.covid19_usafacts.summary.county_name', 'bigquery-public-data.covid19_usafacts.summary.state', 'bigquery-public-data.covid19_usafacts.summary.county_fips_code'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2020_5yr.geo_id', 'bigquery-public-data.covid19_usafacts.summary.deaths', 'bigquery-public-data.census_bureau_acs.county_2020_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.county_2020_5yr.median_age', 'bigquery-public-data.covid19_usafacts.summary.county_fips_code', 'bigquery-public-data.covid19_usafacts.summary.state', 'bigquery-public-data.covid19_usafacts.summary.county_name', 'bigquery-public-data.covid19_usafacts.summary.confirmed_cases'}</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -7616,10 +7616,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71.73427276300208</v>
+        <v>86.64879981399281</v>
       </c>
       <c r="E86" t="n">
-        <v>4182</v>
+        <v>4363</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -7670,7 +7670,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.geo_id'}</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -7700,10 +7700,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>73.54052257500007</v>
+        <v>80.95051403803518</v>
       </c>
       <c r="E87" t="n">
-        <v>3084</v>
+        <v>3981</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.censustract_2018_5yr', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr', 'bigquery-public-data.geo_census_tracts.census_tracts_california'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.censustract_2015_5yr', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr', 'bigquery-public-data.geo_census_tracts.census_tracts_california'}</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_income', 'bigquery-public-data.geo_census_tracts.census_tracts_california.geo_id', 'bigquery-public-data.geo_census_tracts.census_tracts_california.tract_ce', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.geo_id'}</t>
+          <t>{'bigquery-public-data.geo_census_tracts.census_tracts_california.tract_ce', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.geo_census_tracts.census_tracts_california.geo_id'}</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -7784,10 +7784,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>84.56711988300958</v>
+        <v>84.10062610899331</v>
       </c>
       <c r="E88" t="n">
-        <v>4459</v>
+        <v>4373</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.censustract_2017_5yr', 'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national'}</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.geo_census_tracts.us_census_tracts_national.functional_status', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.total_pop', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.tract_geom', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.income_per_capita', 'bigquery-public-data.geo_us_boundaries.zip_codes.functional_status', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.tract_ce', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.geo_id', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.geo_id'}</t>
+          <t>{'bigquery-public-data.geo_us_boundaries.zip_codes.functional_status', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.geo_id', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.geo_id', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.functional_status', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.tract_ce', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.total_pop', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.income_per_capita', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.tract_geom'}</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -7868,10 +7868,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>17.14062219898915</v>
+        <v>16.63327755103819</v>
       </c>
       <c r="E89" t="n">
-        <v>895</v>
+        <v>855</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.market', 'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.wins', 'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.season'}</t>
+          <t>{'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.season', 'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.wins', 'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.market'}</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -7952,10 +7952,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>16.8469200880063</v>
+        <v>22.76692736597033</v>
       </c>
       <c r="E90" t="n">
-        <v>1283</v>
+        <v>1309</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.game_id', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.season', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_market', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_school_ncaa', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.player_id', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_market', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.round', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_school_ncaa', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_name', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_seed', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_name', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.team_market', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.round', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.points_scored', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_alias', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.game_date', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.days_from_epoch', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_seed', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_alias', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.season', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.day'}</t>
+          <t>{'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_alias', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.team_market', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.player_id', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.season', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.days_from_epoch', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_seed', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_school_ncaa', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_name', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_name', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_alias', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.round', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_market', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_market', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.day', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_school_ncaa', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.round', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.game_date', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_seed', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.points_scored', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.season', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.game_id'}</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>16.24034025799483</v>
+        <v>18.49486000899924</v>
       </c>
       <c r="E91" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>{'data-to-insights.ncaa.mbb_historical_tournament_games', 'data-to-insights.ncaa.feature_engineering', 'data-to-insights.ncaa.2018_tournament_results'}</t>
+          <t>{'data-to-insights.ncaa.mbb_historical_tournament_games', 'data-to-insights.ncaa.2018_tournament_results', 'data-to-insights.ncaa.feature_engineering'}</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -8090,7 +8090,7 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>{'data-to-insights.ncaa.2018_tournament_results.school_ncaa', 'data-to-insights.ncaa.feature_engineering.pace_rank', 'data-to-insights.ncaa.feature_engineering.team', 'data-to-insights.ncaa.mbb_historical_tournament_games.win_seed', 'data-to-insights.ncaa.feature_engineering.efficiency_rank', 'data-to-insights.ncaa.2018_tournament_results.label', 'data-to-insights.ncaa.mbb_historical_tournament_games.win_school_ncaa', 'data-to-insights.ncaa.mbb_historical_tournament_games.lose_seed', 'data-to-insights.ncaa.feature_engineering.poss_40min', 'data-to-insights.ncaa.2018_tournament_results.opponent_seed', 'data-to-insights.ncaa.2018_tournament_results.seed', 'data-to-insights.ncaa.2018_tournament_results.opponent_school_ncaa', 'data-to-insights.ncaa.mbb_historical_tournament_games.season', 'data-to-insights.ncaa.mbb_historical_tournament_games.lose_school_ncaa', 'data-to-insights.ncaa.feature_engineering.pace_rating', 'data-to-insights.ncaa.feature_engineering.season', 'data-to-insights.ncaa.feature_engineering.pts_100poss', 'data-to-insights.ncaa.2018_tournament_results.season', 'data-to-insights.ncaa.feature_engineering.efficiency_rating'}</t>
+          <t>{'data-to-insights.ncaa.feature_engineering.pace_rank', 'data-to-insights.ncaa.2018_tournament_results.school_ncaa', 'data-to-insights.ncaa.mbb_historical_tournament_games.win_seed', 'data-to-insights.ncaa.2018_tournament_results.seed', 'data-to-insights.ncaa.2018_tournament_results.label', 'data-to-insights.ncaa.2018_tournament_results.season', 'data-to-insights.ncaa.mbb_historical_tournament_games.lose_school_ncaa', 'data-to-insights.ncaa.2018_tournament_results.opponent_seed', 'data-to-insights.ncaa.mbb_historical_tournament_games.lose_seed', 'data-to-insights.ncaa.feature_engineering.season', 'data-to-insights.ncaa.feature_engineering.pts_100poss', 'data-to-insights.ncaa.mbb_historical_tournament_games.season', 'data-to-insights.ncaa.feature_engineering.pace_rating', 'data-to-insights.ncaa.2018_tournament_results.opponent_school_ncaa', 'data-to-insights.ncaa.feature_engineering.poss_40min', 'data-to-insights.ncaa.feature_engineering.team', 'data-to-insights.ncaa.feature_engineering.efficiency_rating', 'data-to-insights.ncaa.mbb_historical_tournament_games.win_school_ncaa', 'data-to-insights.ncaa.feature_engineering.efficiency_rank'}</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
@@ -8120,10 +8120,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>33.1412005930033</v>
+        <v>30.18377039098414</v>
       </c>
       <c r="E92" t="n">
-        <v>1567</v>
+        <v>1548</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_black', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_hispanic_latinx', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_white', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.report_year', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_us_women', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_global_men', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_native_american', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_global_women', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_asian', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_us_men'}</t>
+          <t>{'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_white', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_us_men', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_hispanic_latinx', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_native_american', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.report_year', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_black', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_global_women', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_asian', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_global_men', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_us_women'}</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -8204,10 +8204,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>17.09512442800042</v>
+        <v>18.43572957202559</v>
       </c>
       <c r="E93" t="n">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>{'DEPS_DEV_V1.DEPS_DEV_V1.PROJECTS', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS'}</t>
+          <t>{'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS', 'DEPS_DEV_V1.DEPS_DEV_V1.PROJECTS', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT'}</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -8258,7 +8258,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>{'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.ProjectType', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.VersionInfo', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.Name', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.ProjectName', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.Version', 'DEPS_DEV_V1.DEPS_DEV_V1.PROJECTS.Name', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.Version', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.Name'}</t>
+          <t>{'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.Name', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.VersionInfo', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.ProjectName', 'DEPS_DEV_V1.DEPS_DEV_V1.PROJECTS.Name', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.ProjectType', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.Name', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.Version', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.Version'}</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -8288,10 +8288,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>16.1285337050067</v>
+        <v>17.30629104399122</v>
       </c>
       <c r="E94" t="n">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -8372,10 +8372,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>14.24006345000817</v>
+        <v>16.89594997098902</v>
       </c>
       <c r="E95" t="n">
-        <v>860</v>
+        <v>892</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.chicago_taxi_trips.taxi_trips.company', 'bigquery-public-data.chicago_taxi_trips.taxi_trips.trip_start_timestamp'}</t>
+          <t>{'bigquery-public-data.chicago_taxi_trips.taxi_trips.trip_start_timestamp', 'bigquery-public-data.chicago_taxi_trips.taxi_trips.company'}</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -8456,10 +8456,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>16.01371990201005</v>
+        <v>20.37285815901123</v>
       </c>
       <c r="E96" t="n">
-        <v>863</v>
+        <v>1001</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>14.63145596699906</v>
+        <v>16.26201790798223</v>
       </c>
       <c r="E97" t="n">
-        <v>913</v>
+        <v>818</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.chicago_crime.crime.year', 'bigquery-public-data.chicago_crime.crime.date'}</t>
+          <t>{'bigquery-public-data.chicago_crime.crime.date', 'bigquery-public-data.chicago_crime.crime.year'}</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -8624,10 +8624,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>14.0667382269894</v>
+        <v>16.92065560899209</v>
       </c>
       <c r="E98" t="n">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.chicago_crime.crime.year', 'bigquery-public-data.chicago_crime.crime.date'}</t>
+          <t>{'bigquery-public-data.chicago_crime.crime.date', 'bigquery-public-data.chicago_crime.crime.year'}</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -8708,10 +8708,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>16.14660150399141</v>
+        <v>16.67352829995798</v>
       </c>
       <c r="E99" t="n">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>{'open-targets-prod.platform.molecule.hasBeenWithdrawn', 'open-targets-prod.platform.molecule.id', 'open-targets-prod.platform.molecule.drugType'}</t>
+          <t>{'open-targets-prod.platform.molecule.hasBeenWithdrawn', 'open-targets-prod.platform.molecule.drugType', 'open-targets-prod.platform.molecule.id'}</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -8792,10 +8792,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>14.22041609899316</v>
+        <v>14.93536516197491</v>
       </c>
       <c r="E100" t="n">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>{'open-targets-prod.platform.targets', 'open-targets-prod.platform.associationByOverallDirect', 'open-targets-prod.platform.diseases'}</t>
+          <t>{'open-targets-prod.platform.diseases', 'open-targets-prod.platform.associationByOverallDirect', 'open-targets-prod.platform.targets'}</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>{'open-targets-prod.platform.associationByOverallDirect.diseaseId', 'open-targets-prod.platform.diseases.id', 'open-targets-prod.platform.targets.approvedSymbol', 'open-targets-prod.platform.associationByOverallDirect.targetId', 'open-targets-prod.platform.targets.id', 'open-targets-prod.platform.associationByOverallDirect.score'}</t>
+          <t>{'open-targets-prod.platform.associationByOverallDirect.targetId', 'open-targets-prod.platform.targets.id', 'open-targets-prod.platform.associationByOverallDirect.diseaseId', 'open-targets-prod.platform.associationByOverallDirect.score', 'open-targets-prod.platform.diseases.id', 'open-targets-prod.platform.targets.approvedSymbol'}</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -8876,10 +8876,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>14.30810770500102</v>
+        <v>14.22431512596086</v>
       </c>
       <c r="E101" t="n">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>{'open-targets-prod.platform.targets', 'open-targets-prod.platform.molecule', 'open-targets-prod.platform.evidence'}</t>
+          <t>{'open-targets-prod.platform.evidence', 'open-targets-prod.platform.molecule', 'open-targets-prod.platform.targets'}</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -8930,7 +8930,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>{'open-targets-prod.platform.targets.approvedSymbol', 'open-targets-prod.platform.molecule.id', 'open-targets-prod.platform.evidence.id', 'open-targets-prod.platform.molecule.name', 'open-targets-prod.platform.evidence.drugId', 'open-targets-prod.platform.targets.id', 'open-targets-prod.platform.evidence.targetId'}</t>
+          <t>{'open-targets-prod.platform.evidence.id', 'open-targets-prod.platform.targets.id', 'open-targets-prod.platform.molecule.id', 'open-targets-prod.platform.targets.approvedSymbol', 'open-targets-prod.platform.evidence.drugId', 'open-targets-prod.platform.evidence.targetId', 'open-targets-prod.platform.molecule.name'}</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -8960,10 +8960,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>13.40436802900513</v>
+        <v>14.08959704998415</v>
       </c>
       <c r="E102" t="n">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -8999,7 +8999,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.open_targets_platform.targets', 'bigquery-public-data.open_targets_platform.associationByOverallDirect', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect'}</t>
+          <t>{'bigquery-public-data.open_targets_platform.associationByOverallDirect', 'bigquery-public-data.open_targets_platform.targets', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect'}</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.open_targets_platform.targets.id', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.datasourceId', 'bigquery-public-data.open_targets_platform.targets.approvedSymbol', 'bigquery-public-data.open_targets_platform.associationByOverallDirect.targetId', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.targetId', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.score', 'bigquery-public-data.open_targets_platform.associationByOverallDirect.score'}</t>
+          <t>{'bigquery-public-data.open_targets_platform.targets.id', 'bigquery-public-data.open_targets_platform.associationByOverallDirect.score', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.datasourceId', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.score', 'bigquery-public-data.open_targets_platform.targets.approvedSymbol', 'bigquery-public-data.open_targets_platform.associationByOverallDirect.targetId', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.targetId'}</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -9044,10 +9044,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>15.38777349799057</v>
+        <v>15.36592080100672</v>
       </c>
       <c r="E103" t="n">
-        <v>931</v>
+        <v>885</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -9098,7 +9098,7 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>{'open-targets-genetics.genetics.variant_disease_coloc.left_study', 'open-targets-genetics.genetics.variant_disease_coloc.right_study', 'open-targets-genetics.genetics.studies.study_id', 'open-targets-genetics.genetics.variant_disease_coloc.coloc_log2_h4_h3'}</t>
+          <t>{'open-targets-genetics.genetics.variant_disease_coloc.right_study', 'open-targets-genetics.genetics.studies.study_id', 'open-targets-genetics.genetics.variant_disease_coloc.coloc_log2_h4_h3', 'open-targets-genetics.genetics.variant_disease_coloc.left_study'}</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -9128,10 +9128,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>15.74966146099905</v>
+        <v>13.53622777602868</v>
       </c>
       <c r="E104" t="n">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -9212,10 +9212,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13.08248153299792</v>
+        <v>15.08712187397759</v>
       </c>
       <c r="E105" t="n">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cymbal_investments.trade_capture_report.MaturityDate', 'bigquery-public-data.cymbal_investments.trade_capture_report.Symbol', 'bigquery-public-data.cymbal_investments.trade_capture_report.StrikePrice', 'bigquery-public-data.cymbal_investments.trade_capture_report.TargetCompID', 'bigquery-public-data.cymbal_investments.trade_capture_report.LastPx', 'bigquery-public-data.cymbal_investments.trade_capture_report.OrderID', 'bigquery-public-data.cymbal_investments.trade_capture_report.Sides'}</t>
+          <t>{'bigquery-public-data.cymbal_investments.trade_capture_report.Sides', 'bigquery-public-data.cymbal_investments.trade_capture_report.OrderID', 'bigquery-public-data.cymbal_investments.trade_capture_report.LastPx', 'bigquery-public-data.cymbal_investments.trade_capture_report.Symbol', 'bigquery-public-data.cymbal_investments.trade_capture_report.MaturityDate', 'bigquery-public-data.cymbal_investments.trade_capture_report.StrikePrice', 'bigquery-public-data.cymbal_investments.trade_capture_report.TargetCompID'}</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -9296,10 +9296,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>18.18922082500649</v>
+        <v>18.63421198696597</v>
       </c>
       <c r="E106" t="n">
-        <v>1225</v>
+        <v>1160</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.gbif.occurrences.eventdate', 'bigquery-public-data.gbif.occurrences.year'}</t>
+          <t>{'bigquery-public-data.gbif.occurrences.year', 'bigquery-public-data.gbif.occurrences.eventdate'}</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
@@ -9380,10 +9380,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>64.61498391500209</v>
+        <v>77.60386130202096</v>
       </c>
       <c r="E107" t="n">
-        <v>4529</v>
+        <v>4593</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.end_position', 'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.start_position', 'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.alternate_bases'}</t>
+          <t>{'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.start_position', 'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.end_position', 'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.alternate_bases'}</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -9464,10 +9464,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>54.87960137298796</v>
+        <v>60.10399977001362</v>
       </c>
       <c r="E108" t="n">
-        <v>3984</v>
+        <v>3797</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.gnomAD.v3_genomes__chr1.AN', 'bigquery-public-data.gnomAD.v3_genomes__chr1.alternate_bases'}</t>
+          <t>{'bigquery-public-data.gnomAD.v3_genomes__chr1.alternate_bases', 'bigquery-public-data.gnomAD.v3_genomes__chr1.AN'}</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
@@ -9548,10 +9548,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>13.02952560500125</v>
+        <v>15.07161795702996</v>
       </c>
       <c r="E109" t="n">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>{'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.term', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.week', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.rank', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.score', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.refresh_date'}</t>
+          <t>{'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.score', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.rank', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.refresh_date', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.week', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.term'}</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
@@ -9632,10 +9632,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>16.79688707199239</v>
+        <v>16.9341018400155</v>
       </c>
       <c r="E110" t="n">
-        <v>978</v>
+        <v>1009</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_usa.population_by_zip_2010', 'bigquery-public-data.utility_us.zipcode_area', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016'}</t>
+          <t>{'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010', 'bigquery-public-data.utility_us.zipcode_area'}</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_usa.population_by_zip_2010.population', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.state_name', 'bigquery-public-data.utility_us.zipcode_area.state_name', 'bigquery-public-data.utility_us.zipcode_area.zipcode', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.consecutive_number', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.zipcode'}</t>
+          <t>{'bigquery-public-data.utility_us.zipcode_area.state_name', 'bigquery-public-data.utility_us.zipcode_area.zipcode', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.consecutive_number', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.population', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.zipcode', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.state_name'}</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -9716,10 +9716,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>16.44245085200237</v>
+        <v>18.62031763599953</v>
       </c>
       <c r="E111" t="n">
-        <v>964</v>
+        <v>1049</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.atmospheric_conditions_1_name', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.state_name', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.consecutive_number'}</t>
+          <t>{'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.consecutive_number', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.state_name', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.atmospheric_conditions_1_name'}</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.county_2015_1yr', 'bigquery-public-data.census_bureau_acs.place_2018_1yr', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr', 'bigquery-public-data.census_bureau_acs.puma_2018_5yr', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr', 'bigquery-public-data.census_bureau_acs.county_2018_1yr', 'bigquery-public-data.census_bureau_acs.place_2015_5yr', 'bigquery-public-data.census_bureau_acs.puma_2015_5yr'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2018_1yr', 'bigquery-public-data.census_bureau_acs.puma_2015_5yr', 'bigquery-public-data.census_bureau_acs.place_2018_1yr', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr', 'bigquery-public-data.census_bureau_acs.place_2015_5yr', 'bigquery-public-data.census_bureau_acs.county_2015_1yr', 'bigquery-public-data.census_bureau_acs.puma_2018_5yr', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr'}</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9854,12 +9854,12 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_bea_cainc30.fips.GeoFIPS', 'bigquery-public-data.sdoh_bea_cainc30.fips.GeoName', 'bigquery-public-data.sdoh_bea_cainc30.fips.Earnings_per_job_avg'}</t>
+          <t>{'bigquery-public-data.sdoh_bea_cainc30.fips.GeoName', 'bigquery-public-data.sdoh_bea_cainc30.fips.Earnings_per_job_avg', 'bigquery-public-data.sdoh_bea_cainc30.fips.GeoFIPS'}</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.puma_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_year_structure_built', 'bigquery-public-data.census_bureau_acs.county_2015_1yr.geo_id', 'bigquery-public-data.census_bureau_acs.puma_2018_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_income', 'bigquery-public-data.census_bureau_acs.county_2015_1yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.puma_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.median_year_structure_built', 'bigquery-public-data.census_bureau_acs.county_2018_1yr.geo_id', 'bigquery-public-data.census_bureau_acs.place_2015_5yr.median_income', 'bigquery-public-data.census_bureau_acs.county_2018_1yr.median_income', 'bigquery-public-data.census_bureau_acs.place_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.puma_2015_5yr.median_income', 'bigquery-public-data.census_bureau_acs.place_2018_1yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.place_2018_1yr.geo_id'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_income', 'bigquery-public-data.census_bureau_acs.puma_2015_5yr.median_income', 'bigquery-public-data.census_bureau_acs.place_2018_1yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.median_year_structure_built', 'bigquery-public-data.census_bureau_acs.place_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2015_1yr.geo_id', 'bigquery-public-data.census_bureau_acs.puma_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.place_2018_1yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2018_1yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2018_1yr.median_income', 'bigquery-public-data.census_bureau_acs.puma_2018_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_year_structure_built', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.median_income', 'bigquery-public-data.census_bureau_acs.county_2015_1yr.median_income', 'bigquery-public-data.census_bureau_acs.place_2015_5yr.median_income', 'bigquery-public-data.census_bureau_acs.puma_2018_5yr.geo_id'}</t>
         </is>
       </c>
       <c r="U112" t="n">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.censustract_2017_5yr', 'bigquery-public-data.census_bureau_acs.puma_2017_5yr', 'bigquery-public-data.census_bureau_acs.zcta5_2017_5yr', 'bigquery-public-data.census_bureau_acs.zip_codes_2017_5yr'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.censustract_2017_5yr', 'bigquery-public-data.census_bureau_acs.zip_codes_2017_5yr', 'bigquery-public-data.census_bureau_acs.puma_2017_5yr', 'bigquery-public-data.census_bureau_acs.zcta5_2017_5yr'}</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9938,12 +9938,12 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_15000_19999', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.sdoh_snap_enrollment.snap_enrollment.SNAP_All_Participation_Households', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_less_10000', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_10000_14999', 'bigquery-public-data.sdoh_snap_enrollment.snap_enrollment.FIPS'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_10000_14999', 'bigquery-public-data.sdoh_snap_enrollment.snap_enrollment.SNAP_All_Participation_Households', 'bigquery-public-data.sdoh_snap_enrollment.snap_enrollment.FIPS', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_less_10000', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_15000_19999'}</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.zip_codes_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.zcta5_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.zcta5_2017_5yr.income_per_capita', 'bigquery-public-data.census_bureau_acs.zcta5_2017_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.population_1_year_and_over', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.income_per_capita', 'bigquery-public-data.census_bureau_acs.zcta5_2017_5yr.population_1_year_and_over', 'bigquery-public-data.census_bureau_acs.puma_2017_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.puma_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.zip_codes_2017_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.geo_id'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.zip_codes_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.zip_codes_2017_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.population_1_year_and_over', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.puma_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.zcta5_2017_5yr.income_per_capita', 'bigquery-public-data.census_bureau_acs.puma_2017_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.zcta5_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.zcta5_2017_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.zcta5_2017_5yr.population_1_year_and_over', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.income_per_capita'}</t>
         </is>
       </c>
       <c r="U113" t="n">
@@ -9968,10 +9968,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>59.9250730950007</v>
+        <v>62.34868250199361</v>
       </c>
       <c r="E114" t="n">
-        <v>2797</v>
+        <v>2855</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -10052,10 +10052,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>81.99741203099256</v>
+        <v>84.35304088995326</v>
       </c>
       <c r="E115" t="n">
-        <v>4488</v>
+        <v>4492</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -10106,7 +10106,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.Unsheltered_Homeless', 'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.CoC_Number'}</t>
+          <t>{'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.CoC_Number', 'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.Unsheltered_Homeless'}</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
@@ -10136,10 +10136,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>82.27350787699106</v>
+        <v>69.97985197004164</v>
       </c>
       <c r="E116" t="n">
-        <v>4379</v>
+        <v>3946</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality', 'bigquery-public-data.census_bureau_acs.county_2017_5yr'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality'}</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.County_of_Residence', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.Ave_Number_of_Prenatal_Wks', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.employed_pop', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.County_of_Residence_FIPS', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.commute_45_59_mins'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr.employed_pop', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.County_of_Residence_FIPS', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.County_of_Residence', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.Ave_Number_of_Prenatal_Wks', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.commute_45_59_mins', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id'}</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
@@ -10220,10 +10220,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>69.24577734300692</v>
+        <v>74.45295522903325</v>
       </c>
       <c r="E117" t="n">
-        <v>4187</v>
+        <v>4237</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.county_2015_5yr.geo_id', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.County_Name', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.unemployed_pop', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.FIPS', 'bigquery-public-data.census_bureau_acs.county_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2018_5yr.unemployed_pop', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.Public_Total'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2015_5yr.geo_id', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.FIPS', 'bigquery-public-data.census_bureau_acs.county_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2018_5yr.unemployed_pop', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.County_Name', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.unemployed_pop', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.Public_Total'}</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -10304,10 +10304,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>85.11548374399717</v>
+        <v>81.67034444498131</v>
       </c>
       <c r="E118" t="n">
-        <v>4177</v>
+        <v>4107</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr', 'bigquery-public-data.census_bureau_acs.county_2016_5yr', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity', 'bigquery-public-data.census_bureau_acs.county_2015_5yr'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity', 'bigquery-public-data.census_bureau_acs.county_2015_5yr', 'bigquery-public-data.census_bureau_acs.county_2016_5yr'}</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.County_of_Residence_FIPS', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.poverty', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.pop_determined_poverty_status', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.poverty', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.pop_determined_poverty_status', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.poverty', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.pop_determined_poverty_status', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.geo_id', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Maternal_Morbidity_YN', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Year', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Births'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2016_5yr.pop_determined_poverty_status', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Maternal_Morbidity_YN', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.County_of_Residence_FIPS', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.poverty', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.pop_determined_poverty_status', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.poverty', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.poverty', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.pop_determined_poverty_status', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Births', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Year'}</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
@@ -10388,10 +10388,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>20.18641402199864</v>
+        <v>19.696857138013</v>
       </c>
       <c r="E119" t="n">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary', 'bigquery-public-data.openaq.global_air_quality'}</t>
+          <t>{'bigquery-public-data.openaq.global_air_quality', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary'}</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.longitude', 'bigquery-public-data.openaq.global_air_quality.longitude', 'bigquery-public-data.openaq.global_air_quality.value', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.latitude', 'bigquery-public-data.openaq.global_air_quality.latitude', 'bigquery-public-data.openaq.global_air_quality.city', 'bigquery-public-data.openaq.global_air_quality.timestamp', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.arithmetic_mean'}</t>
+          <t>{'bigquery-public-data.openaq.global_air_quality.timestamp', 'bigquery-public-data.openaq.global_air_quality.latitude', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.longitude', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.latitude', 'bigquery-public-data.openaq.global_air_quality.longitude', 'bigquery-public-data.openaq.global_air_quality.city', 'bigquery-public-data.openaq.global_air_quality.value'}</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
@@ -10472,10 +10472,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>14.40901708899764</v>
+        <v>15.21616076800274</v>
       </c>
       <c r="E120" t="n">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>{'STACKOVERFLOW.STACKOVERFLOW.USERS', 'STACKOVERFLOW.STACKOVERFLOW.BADGES'}</t>
+          <t>{'STACKOVERFLOW.STACKOVERFLOW.BADGES', 'STACKOVERFLOW.STACKOVERFLOW.USERS'}</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>{'STACKOVERFLOW.STACKOVERFLOW.USERS.creation_date', 'STACKOVERFLOW.STACKOVERFLOW.BADGES.id', 'STACKOVERFLOW.STACKOVERFLOW.USERS.id', 'STACKOVERFLOW.STACKOVERFLOW.USERS.reputation'}</t>
+          <t>{'STACKOVERFLOW.STACKOVERFLOW.USERS.id', 'STACKOVERFLOW.STACKOVERFLOW.USERS.creation_date', 'STACKOVERFLOW.STACKOVERFLOW.BADGES.id', 'STACKOVERFLOW.STACKOVERFLOW.USERS.reputation'}</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
@@ -10556,10 +10556,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>18.75156573699496</v>
+        <v>18.41993535100482</v>
       </c>
       <c r="E121" t="n">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.posts_answers'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_answers.creation_date'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_questions.id'}</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
@@ -10640,10 +10640,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14.66729630398913</v>
+        <v>19.51326919801068</v>
       </c>
       <c r="E122" t="n">
-        <v>887</v>
+        <v>854</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -10694,7 +10694,7 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.users.id', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.posts_answers.answer_count', 'bigquery-public-data.stackoverflow.users.display_name', 'bigquery-public-data.stackoverflow.posts_answers.id'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.posts_answers.answer_count', 'bigquery-public-data.stackoverflow.users.id', 'bigquery-public-data.stackoverflow.users.display_name', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id'}</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
@@ -10724,10 +10724,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>16.43795540300198</v>
+        <v>16.96983585203998</v>
       </c>
       <c r="E123" t="n">
-        <v>856</v>
+        <v>907</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.posts_answers'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_answers.body', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.posts_answers.title', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.tags'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_answers.title', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.body'}</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
@@ -10808,10 +10808,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>17.26706242299406</v>
+        <v>17.03768389800098</v>
       </c>
       <c r="E124" t="n">
-        <v>964</v>
+        <v>913</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.users'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.users', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.answer_count', 'bigquery-public-data.stackoverflow.posts_answers.score', 'bigquery-public-data.stackoverflow.posts_answers.view_count', 'bigquery-public-data.stackoverflow.posts_questions.comment_count', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.users.id', 'bigquery-public-data.stackoverflow.posts_answers.comment_count', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.posts_answers.answer_count', 'bigquery-public-data.stackoverflow.posts_questions.score', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.view_count'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.comment_count', 'bigquery-public-data.stackoverflow.users.id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.posts_answers.view_count', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_questions.answer_count', 'bigquery-public-data.stackoverflow.posts_answers.answer_count', 'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.score', 'bigquery-public-data.stackoverflow.posts_answers.score', 'bigquery-public-data.stackoverflow.posts_answers.comment_count', 'bigquery-public-data.stackoverflow.posts_questions.parent_id'}</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
@@ -10892,10 +10892,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>13.60767864699301</v>
+        <v>15.5947015650454</v>
       </c>
       <c r="E125" t="n">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -10976,10 +10976,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>17.49755232999451</v>
+        <v>45.23622553196037</v>
       </c>
       <c r="E126" t="n">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.comments', 'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.posts_answers'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.comments', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.body', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.comments.post_id', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.comments.user_id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.comments.text', 'bigquery-public-data.stackoverflow.posts_questions.owner_user_id', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.comments.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.comments.id', 'bigquery-public-data.stackoverflow.posts_questions.id'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.posts_questions.owner_user_id', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.comments.id', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.comments.user_id', 'bigquery-public-data.stackoverflow.comments.post_id', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.comments.creation_date', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.comments.text', 'bigquery-public-data.stackoverflow.posts_answers.body'}</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
@@ -11060,10 +11060,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>19.04142040299485</v>
+        <v>17.8201324249967</v>
       </c>
       <c r="E127" t="n">
-        <v>1051</v>
+        <v>1024</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.tags'}</t>
+          <t>{'bigquery-public-data.stackoverflow.tags', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.tags.id', 'bigquery-public-data.stackoverflow.tags.wiki_post_id', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.tags.tag_name', 'bigquery-public-data.stackoverflow.posts_questions.tags'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.tags.tag_name', 'bigquery-public-data.stackoverflow.tags.id', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.tags.wiki_post_id'}</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
@@ -11144,10 +11144,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>13.3855027170066</v>
+        <v>16.10876792797353</v>
       </c>
       <c r="E128" t="n">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -11183,7 +11183,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.tags'}</t>
+          <t>{'bigquery-public-data.stackoverflow.tags', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.tags.id', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.tags.tag_name', 'bigquery-public-data.stackoverflow.posts_questions.tags'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.tags.tag_name', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.tags.id', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.posts_questions.id'}</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
@@ -11228,7 +11228,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>13.90091531099461</v>
+        <v>14.91898388700793</v>
       </c>
       <c r="E129" t="n">
         <v>798</v>
@@ -11267,7 +11267,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.posts_answers'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_answers.creation_date'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_questions.id'}</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
@@ -11312,10 +11312,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>16.51326241300558</v>
+        <v>18.7270364559954</v>
       </c>
       <c r="E130" t="n">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.badges', 'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.users'}</t>
+          <t>{'bigquery-public-data.stackoverflow.badges', 'bigquery-public-data.stackoverflow.users', 'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_answers.body', 'bigquery-public-data.stackoverflow.badges.user_id', 'bigquery-public-data.stackoverflow.users.up_votes', 'bigquery-public-data.stackoverflow.users.down_votes', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.posts_answers.accepted_answer_id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.users.id', 'bigquery-public-data.stackoverflow.posts_questions.owner_user_id', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.badges.id', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.accepted_answer_id'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.accepted_answer_id', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.users.id', 'bigquery-public-data.stackoverflow.posts_answers.accepted_answer_id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.users.down_votes', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.badges.user_id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.badges.id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.users.up_votes', 'bigquery-public-data.stackoverflow.posts_questions.owner_user_id', 'bigquery-public-data.stackoverflow.posts_answers.body'}</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
@@ -11396,10 +11396,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>17.53129878899199</v>
+        <v>18.84152941498905</v>
       </c>
       <c r="E131" t="n">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.fhir_synthea.condition', 'bigquery-public-data.fhir_synthea.medication_request', 'bigquery-public-data.fhir_synthea.patient'}</t>
+          <t>{'bigquery-public-data.fhir_synthea.patient', 'bigquery-public-data.fhir_synthea.condition', 'bigquery-public-data.fhir_synthea.medication_request'}</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.fhir_synthea.patient.id', 'bigquery-public-data.fhir_synthea.condition.id', 'bigquery-public-data.fhir_synthea.condition.code', 'bigquery-public-data.fhir_synthea.medication_request.id'}</t>
+          <t>{'bigquery-public-data.fhir_synthea.condition.id', 'bigquery-public-data.fhir_synthea.condition.code', 'bigquery-public-data.fhir_synthea.medication_request.id', 'bigquery-public-data.fhir_synthea.patient.id'}</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
@@ -11480,10 +11480,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>15.58597730200563</v>
+        <v>13.65540813404368</v>
       </c>
       <c r="E132" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.the_met.images.title', 'bigquery-public-data.the_met.objects.title', 'bigquery-public-data.the_met.objects.object_id', 'bigquery-public-data.the_met.images.object_id', 'bigquery-public-data.the_met.images.original_image_url', 'bigquery-public-data.the_met.objects.artist_display_name', 'bigquery-public-data.the_met.objects.object_end_date', 'bigquery-public-data.the_met.objects.medium'}</t>
+          <t>{'bigquery-public-data.the_met.images.object_id', 'bigquery-public-data.the_met.images.title', 'bigquery-public-data.the_met.objects.object_end_date', 'bigquery-public-data.the_met.objects.title', 'bigquery-public-data.the_met.objects.medium', 'bigquery-public-data.the_met.objects.artist_display_name', 'bigquery-public-data.the_met.images.original_image_url', 'bigquery-public-data.the_met.objects.object_id'}</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
@@ -11564,10 +11564,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>15.02141695399769</v>
+        <v>16.62361536599929</v>
       </c>
       <c r="E133" t="n">
-        <v>927</v>
+        <v>988</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.the_met.vision_api_data', 'bigquery-public-data.the_met.objects'}</t>
+          <t>{'bigquery-public-data.the_met.objects', 'bigquery-public-data.the_met.vision_api_data'}</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
@@ -11618,7 +11618,7 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.the_met.objects.period', 'bigquery-public-data.the_met.vision_api_data.object_id', 'bigquery-public-data.the_met.vision_api_data.labelAnnotations', 'bigquery-public-data.the_met.objects.object_id'}</t>
+          <t>{'bigquery-public-data.the_met.vision_api_data.object_id', 'bigquery-public-data.the_met.objects.period', 'bigquery-public-data.the_met.objects.object_id', 'bigquery-public-data.the_met.vision_api_data.labelAnnotations'}</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
@@ -11648,10 +11648,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>13.90272791199095</v>
+        <v>14.62219813204138</v>
       </c>
       <c r="E134" t="n">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.the_met.vision_api_data', 'bigquery-public-data.the_met.objects'}</t>
+          <t>{'bigquery-public-data.the_met.objects', 'bigquery-public-data.the_met.vision_api_data'}</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
@@ -11702,7 +11702,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.the_met.objects.title', 'bigquery-public-data.the_met.objects.metadata_date', 'bigquery-public-data.the_met.objects.object_id', 'bigquery-public-data.the_met.vision_api_data.object_id'}</t>
+          <t>{'bigquery-public-data.the_met.objects.metadata_date', 'bigquery-public-data.the_met.vision_api_data.object_id', 'bigquery-public-data.the_met.objects.title', 'bigquery-public-data.the_met.objects.object_id'}</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
@@ -11732,7 +11732,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>14.62908161999076</v>
+        <v>15.29595483402954</v>
       </c>
       <c r="E135" t="n">
         <v>851</v>
@@ -11816,10 +11816,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>17.37468145799357</v>
+        <v>21.22189864999382</v>
       </c>
       <c r="E136" t="n">
-        <v>1090</v>
+        <v>1036</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.epa_historical_air_quality.lead_daily_summary', 'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary'}</t>
+          <t>{'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary', 'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary'}</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -11870,7 +11870,7 @@
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary.arithmetic_mean'}</t>
+          <t>{'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary.arithmetic_mean'}</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
@@ -11900,10 +11900,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>17.59590873899288</v>
+        <v>20.34451983397594</v>
       </c>
       <c r="E137" t="n">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -11954,7 +11954,7 @@
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ReferencedSeriesSequence', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.SourceImageSequence', 'IDC.IDC_V17.DICOM_ALL.ReferencedImageSequence', 'IDC.IDC_V17.DICOM_ALL.collection_id'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ReferencedSeriesSequence', 'IDC.IDC_V17.DICOM_ALL.SourceImageSequence', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.DICOM_ALL.ReferencedImageSequence', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID'}</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
@@ -11984,10 +11984,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>15.30356443900382</v>
+        <v>19.57012571196537</v>
       </c>
       <c r="E138" t="n">
-        <v>955</v>
+        <v>1001</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.SEGMENTATIONS', 'IDC.IDC_V17.DICOM_ALL'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL', 'IDC.IDC_V17.SEGMENTATIONS'}</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -12038,7 +12038,7 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SeriesDescription', 'IDC.IDC_V17.SEGMENTATIONS.SOPInstanceUID', 'IDC.IDC_V17.SEGMENTATIONS.PatientID', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.SEGMENTATIONS.SeriesInstanceUID'}</t>
+          <t>{'IDC.IDC_V17.SEGMENTATIONS.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.SEGMENTATIONS.PatientID', 'IDC.IDC_V17.SEGMENTATIONS.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SeriesDescription', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID'}</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
@@ -12068,10 +12068,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>15.82610888199997</v>
+        <v>16.29367824899964</v>
       </c>
       <c r="E139" t="n">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.SEGMENTATIONS', 'IDC.IDC_V17.DICOM_ALL'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL', 'IDC.IDC_V17.SEGMENTATIONS'}</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -12122,7 +12122,7 @@
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.SEGMENTATIONS.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.Modality', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.Modality', 'IDC.IDC_V17.SEGMENTATIONS.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID'}</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
@@ -12152,10 +12152,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>14.91635914199287</v>
+        <v>17.10923816997092</v>
       </c>
       <c r="E140" t="n">
-        <v>901</v>
+        <v>869</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.SEGMENTATIONS', 'IDC.IDC_V17.DICOM_ALL'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL', 'IDC.IDC_V17.SEGMENTATIONS'}</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -12236,10 +12236,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>16.27194369499921</v>
+        <v>19.08047754701693</v>
       </c>
       <c r="E141" t="n">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.SpecimenDescriptionSequence', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.SpecimenDescriptionSequence', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID'}</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>19.87817940799869</v>
+        <v>24.1145282080397</v>
       </c>
       <c r="E142" t="n">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ImagePositionPatient', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.Exposure', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.PatientID'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.ImagePositionPatient', 'IDC.IDC_V17.DICOM_ALL.Exposure'}</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
@@ -12404,10 +12404,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>15.64003035699716</v>
+        <v>17.08321468404029</v>
       </c>
       <c r="E143" t="n">
-        <v>965</v>
+        <v>939</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -12458,7 +12458,7 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.TotalPixelMatrixColumns', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.gcs_url', 'IDC.IDC_V17.DICOM_ALL.TotalPixelMatrixRows', 'IDC.IDC_V17.DICOM_ALL.ContainerIdentifier', 'IDC.IDC_V17.DICOM_ALL.crdc_instance_uuid'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.crdc_instance_uuid', 'IDC.IDC_V17.DICOM_ALL.ContainerIdentifier', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.TotalPixelMatrixRows', 'IDC.IDC_V17.DICOM_ALL.gcs_url', 'IDC.IDC_V17.DICOM_ALL.TotalPixelMatrixColumns', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID'}</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
@@ -12488,10 +12488,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>15.7817222809972</v>
+        <v>19.30816840997431</v>
       </c>
       <c r="E144" t="n">
-        <v>858</v>
+        <v>969</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -12572,10 +12572,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>16.96670769501361</v>
+        <v>22.93799581297208</v>
       </c>
       <c r="E145" t="n">
-        <v>1035</v>
+        <v>1241</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -12656,10 +12656,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>19.5825829749956</v>
+        <v>25.12706483801594</v>
       </c>
       <c r="E146" t="n">
-        <v>1532</v>
+        <v>1515</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.PixelSpacing', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.crdc_series_uuid', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.Columns', 'IDC.IDC_V17.DICOM_ALL.ImageOrientationPatient', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ImagePositionPatient', 'IDC.IDC_V17.DICOM_ALL.Rows', 'IDC.IDC_V17.DICOM_ALL.TransferSyntaxUID', 'IDC.IDC_V17.DICOM_ALL.SeriesNumber', 'IDC.IDC_V17.DICOM_ALL.Exposure', 'IDC.IDC_V17.DICOM_ALL.SliceThickness', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.aws_bucket', 'IDC.IDC_V17.DICOM_ALL.ImageType'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.Columns', 'IDC.IDC_V17.DICOM_ALL.Rows', 'IDC.IDC_V17.DICOM_ALL.Exposure', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SliceThickness', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ImagePositionPatient', 'IDC.IDC_V17.DICOM_ALL.aws_bucket', 'IDC.IDC_V17.DICOM_ALL.crdc_series_uuid', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.PixelSpacing', 'IDC.IDC_V17.DICOM_ALL.ImageOrientationPatient', 'IDC.IDC_V17.DICOM_ALL.TransferSyntaxUID', 'IDC.IDC_V17.DICOM_ALL.ImageType', 'IDC.IDC_V17.DICOM_ALL.SeriesNumber'}</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
@@ -12740,10 +12740,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>14.30238541400468</v>
+        <v>17.10611830698326</v>
       </c>
       <c r="E147" t="n">
-        <v>877</v>
+        <v>950</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -12794,7 +12794,7 @@
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>{'IOWA_LIQUOR_SALES.IOWA_LIQUOR_SALES.SALES.category', 'IOWA_LIQUOR_SALES.IOWA_LIQUOR_SALES.SALES.volume_sold_gallons', 'IOWA_LIQUOR_SALES.IOWA_LIQUOR_SALES.SALES.date', 'IOWA_LIQUOR_SALES.IOWA_LIQUOR_SALES.SALES.category_name'}</t>
+          <t>{'IOWA_LIQUOR_SALES.IOWA_LIQUOR_SALES.SALES.date', 'IOWA_LIQUOR_SALES.IOWA_LIQUOR_SALES.SALES.volume_sold_gallons', 'IOWA_LIQUOR_SALES.IOWA_LIQUOR_SALES.SALES.category_name', 'IOWA_LIQUOR_SALES.IOWA_LIQUOR_SALES.SALES.category'}</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
@@ -12824,10 +12824,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>16.60178174100292</v>
+        <v>18.58738928602543</v>
       </c>
       <c r="E148" t="n">
-        <v>1050</v>
+        <v>1122</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -12878,7 +12878,7 @@
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.iowa_liquor_sales.sales.category_name', 'bigquery-public-data.iowa_liquor_sales.sales.category', 'bigquery-public-data.iowa_liquor_sales.sales.state_bottle_retail', 'bigquery-public-data.iowa_liquor_sales.sales.bottle_volume_ml'}</t>
+          <t>{'bigquery-public-data.iowa_liquor_sales.sales.category_name', 'bigquery-public-data.iowa_liquor_sales.sales.state_bottle_retail', 'bigquery-public-data.iowa_liquor_sales.sales.category', 'bigquery-public-data.iowa_liquor_sales.sales.bottle_volume_ml'}</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
@@ -12908,10 +12908,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>12.47833593300311</v>
+        <v>14.80334441899322</v>
       </c>
       <c r="E149" t="n">
-        <v>677</v>
+        <v>654</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -12962,7 +12962,7 @@
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.iowa_liquor_sales.sales.invoice_and_item_number', 'bigquery-public-data.iowa_liquor_sales.sales.sale_dollars', 'bigquery-public-data.iowa_liquor_sales.sales.date', 'bigquery-public-data.iowa_liquor_sales.sales.item_description'}</t>
+          <t>{'bigquery-public-data.iowa_liquor_sales.sales.sale_dollars', 'bigquery-public-data.iowa_liquor_sales.sales.item_description', 'bigquery-public-data.iowa_liquor_sales.sales.invoice_and_item_number', 'bigquery-public-data.iowa_liquor_sales.sales.date'}</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
@@ -12992,10 +12992,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>14.12734158300736</v>
+        <v>15.26673483499326</v>
       </c>
       <c r="E150" t="n">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_usa.population_by_zip_2010', 'bigquery-public-data.iowa_liquor_sales.sales'}</t>
+          <t>{'bigquery-public-data.iowa_liquor_sales.sales', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010'}</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_usa.population_by_zip_2010.population', 'bigquery-public-data.iowa_liquor_sales.sales.sale_dollars', 'bigquery-public-data.iowa_liquor_sales.sales.category_name', 'bigquery-public-data.iowa_liquor_sales.sales.zip_code', 'bigquery-public-data.iowa_liquor_sales.sales.date', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.zipcode'}</t>
+          <t>{'bigquery-public-data.iowa_liquor_sales.sales.sale_dollars', 'bigquery-public-data.iowa_liquor_sales.sales.date', 'bigquery-public-data.iowa_liquor_sales.sales.category_name', 'bigquery-public-data.iowa_liquor_sales.sales.zip_code', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.population', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.zipcode'}</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
@@ -13076,10 +13076,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>14.66237375698984</v>
+        <v>19.9402586069773</v>
       </c>
       <c r="E151" t="n">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -13130,7 +13130,7 @@
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.nppes.npi_optimized.npi', 'bigquery-public-data.nppes.npi_optimized.healthcare_provider_taxonomy_1_specialization'}</t>
+          <t>{'bigquery-public-data.nppes.npi_optimized.healthcare_provider_taxonomy_1_specialization', 'bigquery-public-data.nppes.npi_optimized.npi'}</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
@@ -13160,10 +13160,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>14.49665637100406</v>
+        <v>17.97888094303198</v>
       </c>
       <c r="E152" t="n">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -13214,7 +13214,7 @@
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.usa_names.usa_1910_current.number', 'bigquery-public-data.usa_names.usa_1910_current.year', 'bigquery-public-data.usa_names.usa_1910_current.name', 'bigquery-public-data.usa_names.usa_1910_current.gender'}</t>
+          <t>{'bigquery-public-data.usa_names.usa_1910_current.year', 'bigquery-public-data.usa_names.usa_1910_current.name', 'bigquery-public-data.usa_names.usa_1910_current.number', 'bigquery-public-data.usa_names.usa_1910_current.gender'}</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
@@ -13244,10 +13244,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>17.7302806200023</v>
+        <v>20.72997309896164</v>
       </c>
       <c r="E153" t="n">
-        <v>1243</v>
+        <v>1434</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>{'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39'}</t>
+          <t>{'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39'}</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>{'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__gender', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.sample_barcode', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.project_short_name', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.case_barcode', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__days_to_death', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.case_barcode', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.normalized_count', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.aliquot_barcode', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.project_short_name', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__vital_status', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.gene_id', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.Variant_Type', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.HGNC_gene_symbol'}</t>
+          <t>{'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__vital_status', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.gene_id', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.sample_barcode', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__days_to_death', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.aliquot_barcode', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.project_short_name', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.Variant_Type', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.HGNC_gene_symbol', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__gender', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.project_short_name', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.case_barcode', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.case_barcode', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.normalized_count'}</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
@@ -13328,10 +13328,10 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>19.13221882500511</v>
+        <v>23.32458298804704</v>
       </c>
       <c r="E154" t="n">
-        <v>1568</v>
+        <v>1591</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -13367,7 +13367,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>{'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current'}</t>
+          <t>{'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current', 'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current'}</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
@@ -13382,7 +13382,7 @@
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>{'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.fpkm_unstranded', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.aliquot_id', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.case_id', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.case_id', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.protein_abundance_log2ratio', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.sample_type', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.sample_submitter_id', 'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.sample_barcode', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.gene_symbol', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.aliquot_id', 'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.gene_name'}</t>
+          <t>{'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.fpkm_unstranded', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.case_id', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.gene_symbol', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.aliquot_id', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.protein_abundance_log2ratio', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.aliquot_id', 'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.gene_name', 'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.sample_barcode', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.case_id', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.sample_type', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.sample_submitter_id'}</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
@@ -13412,10 +13412,10 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>16.38584451300267</v>
+        <v>19.72895939199952</v>
       </c>
       <c r="E155" t="n">
-        <v>906</v>
+        <v>883</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>{'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38'}</t>
+          <t>{'TCGA_MITELMAN.PROD.CYTOBANDS_HG38', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23'}</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>{'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.start_pos', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.chromosome', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_start', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.chromosome', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.end_pos', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.cytoband_name', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.case_barcode', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_stop', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.copy_number'}</t>
+          <t>{'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.copy_number', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.end_pos', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.chromosome', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.case_barcode', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_stop', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.start_pos', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_start', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.cytoband_name', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.chromosome'}</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
@@ -13496,10 +13496,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>20.40630671200051</v>
+        <v>26.11805728403851</v>
       </c>
       <c r="E156" t="n">
-        <v>1406</v>
+        <v>1486</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>{'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38'}</t>
+          <t>{'TCGA_MITELMAN.PROD.CYTOBANDS_HG38', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23'}</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
@@ -13550,7 +13550,7 @@
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>{'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.start_pos', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.chromosome', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_start', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.chromosome', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.end_pos', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.cytoband_name', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.case_barcode', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_stop', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.copy_number'}</t>
+          <t>{'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.copy_number', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.end_pos', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.chromosome', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.case_barcode', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_stop', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.start_pos', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_start', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.cytoband_name', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.chromosome'}</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
@@ -13580,10 +13580,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>15.03388270300638</v>
+        <v>19.09502574999351</v>
       </c>
       <c r="E157" t="n">
-        <v>1102</v>
+        <v>995</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -13634,7 +13634,7 @@
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>{'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.RNASEQ_GENE_EXPRESSION_UNC_RSEM.sample_barcode', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3.Variant_Type', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3.sample_barcode_tumor'}</t>
+          <t>{'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3.Variant_Type', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.RNASEQ_GENE_EXPRESSION_UNC_RSEM.sample_barcode', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3.sample_barcode_tumor'}</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
@@ -13664,10 +13664,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>16.72307957700104</v>
+        <v>17.44186901499052</v>
       </c>
       <c r="E158" t="n">
-        <v>990</v>
+        <v>1031</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -13703,7 +13703,7 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>{'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION'}</t>
+          <t>{'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION'}</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
@@ -13718,7 +13718,7 @@
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>{'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL.case_barcode', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION.gene_name', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION.case_barcode', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.reads_per_million_miRNA_mapped', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.case_barcode', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.mirna_id'}</t>
+          <t>{'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.mirna_id', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL.case_barcode', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION.gene_name', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION.case_barcode', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.reads_per_million_miRNA_mapped', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.case_barcode'}</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>13.75377812699298</v>
+        <v>18.57971020200057</v>
       </c>
       <c r="E159" t="n">
-        <v>920</v>
+        <v>874</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -13802,7 +13802,7 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.Symbol', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.icd_o_3_histology', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode'}</t>
+          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.icd_o_3_histology', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.Symbol'}</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
@@ -13832,10 +13832,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>15.22537596800248</v>
+        <v>17.85677897505229</v>
       </c>
       <c r="E160" t="n">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol'}</t>
+          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol'}</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
@@ -13916,10 +13916,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>12.98659395799041</v>
+        <v>16.64842993597267</v>
       </c>
       <c r="E161" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol'}</t>
+          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol'}</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
@@ -14000,10 +14000,10 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15.99300485299318</v>
+        <v>17.6416368939681</v>
       </c>
       <c r="E162" t="n">
-        <v>890</v>
+        <v>863</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -14084,10 +14084,10 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>18.33018454899138</v>
+        <v>17.04994628200075</v>
       </c>
       <c r="E163" t="n">
-        <v>1094</v>
+        <v>1063</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -14168,10 +14168,10 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>16.85520381201059</v>
+        <v>21.84656134300167</v>
       </c>
       <c r="E164" t="n">
-        <v>1243</v>
+        <v>1218</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -14207,7 +14207,7 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>{'spider2-public-data.1000_genomes.sample_info', 'spider2-public-data.1000_genomes.variants'}</t>
+          <t>{'spider2-public-data.1000_genomes.variants', 'spider2-public-data.1000_genomes.sample_info'}</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
@@ -14222,7 +14222,7 @@
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>{'spider2-public-data.1000_genomes.variants.reference_name', 'spider2-public-data.1000_genomes.variants.call', 'spider2-public-data.1000_genomes.sample_info.Super_Population', 'spider2-public-data.1000_genomes.sample_info.Sample', 'spider2-public-data.1000_genomes.variants.start', 'spider2-public-data.1000_genomes.variants.VT', 'spider2-public-data.1000_genomes.variants.reference_bases', 'spider2-public-data.1000_genomes.variants.alternate_bases', 'spider2-public-data.1000_genomes.variants.end'}</t>
+          <t>{'spider2-public-data.1000_genomes.sample_info.Sample', 'spider2-public-data.1000_genomes.variants.alternate_bases', 'spider2-public-data.1000_genomes.variants.VT', 'spider2-public-data.1000_genomes.variants.reference_name', 'spider2-public-data.1000_genomes.variants.start', 'spider2-public-data.1000_genomes.variants.reference_bases', 'spider2-public-data.1000_genomes.variants.end', 'spider2-public-data.1000_genomes.variants.call', 'spider2-public-data.1000_genomes.sample_info.Super_Population'}</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
@@ -14252,10 +14252,10 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>15.35509264700522</v>
+        <v>20.1545787230134</v>
       </c>
       <c r="E165" t="n">
-        <v>1070</v>
+        <v>1126</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -14306,7 +14306,7 @@
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>{'spider2-public-data.1000_genomes.variants.AF', 'spider2-public-data.1000_genomes.variants.reference_name', 'spider2-public-data.1000_genomes.variants.call', 'spider2-public-data.1000_genomes.variants.start', 'spider2-public-data.1000_genomes.variants.VT', 'spider2-public-data.1000_genomes.variants.reference_bases', 'spider2-public-data.1000_genomes.variants.alternate_bases', 'spider2-public-data.1000_genomes.variants.end'}</t>
+          <t>{'spider2-public-data.1000_genomes.variants.alternate_bases', 'spider2-public-data.1000_genomes.variants.VT', 'spider2-public-data.1000_genomes.variants.reference_name', 'spider2-public-data.1000_genomes.variants.start', 'spider2-public-data.1000_genomes.variants.reference_bases', 'spider2-public-data.1000_genomes.variants.end', 'spider2-public-data.1000_genomes.variants.call', 'spider2-public-data.1000_genomes.variants.AF'}</t>
         </is>
       </c>
       <c r="T165" t="inlineStr">
@@ -14336,10 +14336,10 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>15.1272908289975</v>
+        <v>15.27774237899575</v>
       </c>
       <c r="E166" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -14390,7 +14390,7 @@
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.austin_bikeshare.bikeshare_stations.station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_time', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_station_id'}</t>
+          <t>{'bigquery-public-data.austin_bikeshare.bikeshare_stations.station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_time'}</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
@@ -14420,10 +14420,10 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>13.81365495199861</v>
+        <v>14.84331852698233</v>
       </c>
       <c r="E167" t="n">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -14504,10 +14504,10 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>14.19458478300658</v>
+        <v>16.08573702903232</v>
       </c>
       <c r="E168" t="n">
-        <v>817</v>
+        <v>853</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.austin_bikeshare.bikeshare_stations.station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_stations.council_district', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.end_station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_station_id'}</t>
+          <t>{'bigquery-public-data.austin_bikeshare.bikeshare_stations.station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.end_station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_stations.council_district'}</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
@@ -14588,10 +14588,10 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>19.3454245699977</v>
+        <v>20.88134671997977</v>
       </c>
       <c r="E169" t="n">
-        <v>1301</v>
+        <v>1208</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -14672,10 +14672,10 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>12.8149659220071</v>
+        <v>15.93352472799597</v>
       </c>
       <c r="E170" t="n">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -14756,10 +14756,10 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>15.45299427800637</v>
+        <v>16.9731897629681</v>
       </c>
       <c r="E171" t="n">
-        <v>886</v>
+        <v>864</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.dimensions_ai_covid19.publications.title', 'bigquery-public-data.dimensions_ai_covid19.publications.id', 'bigquery-public-data.dimensions_ai_covid19.grid.id', 'bigquery-public-data.dimensions_ai_covid19.publications.research_orgs'}</t>
+          <t>{'bigquery-public-data.dimensions_ai_covid19.grid.id', 'bigquery-public-data.dimensions_ai_covid19.publications.research_orgs', 'bigquery-public-data.dimensions_ai_covid19.publications.id', 'bigquery-public-data.dimensions_ai_covid19.publications.title'}</t>
         </is>
       </c>
       <c r="T171" t="inlineStr">
@@ -14840,10 +14840,10 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>14.35552302699944</v>
+        <v>19.48938245902536</v>
       </c>
       <c r="E172" t="n">
-        <v>801</v>
+        <v>871</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -14879,7 +14879,7 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ebi_chembl.molecule_synonyms_23', 'bigquery-public-data.ebi_chembl.products_23', 'bigquery-public-data.ebi_chembl.compound_records_23', 'bigquery-public-data.ebi_chembl.formulations_23', 'bigquery-public-data.ebi_chembl.research_companies_23'}</t>
+          <t>{'bigquery-public-data.ebi_chembl.molecule_synonyms_23', 'bigquery-public-data.ebi_chembl.formulations_23', 'bigquery-public-data.ebi_chembl.research_companies_23', 'bigquery-public-data.ebi_chembl.products_23', 'bigquery-public-data.ebi_chembl.compound_records_23'}</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
@@ -14894,7 +14894,7 @@
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ebi_chembl.compound_records_23.molregno', 'bigquery-public-data.ebi_chembl.formulations_23.molregno', 'bigquery-public-data.ebi_chembl.products_23.approval_date', 'bigquery-public-data.ebi_chembl.molecule_synonyms_23.molregno', 'bigquery-public-data.ebi_chembl.research_companies_23.company', 'bigquery-public-data.ebi_chembl.products_23.trade_name'}</t>
+          <t>{'bigquery-public-data.ebi_chembl.compound_records_23.molregno', 'bigquery-public-data.ebi_chembl.products_23.approval_date', 'bigquery-public-data.ebi_chembl.formulations_23.molregno', 'bigquery-public-data.ebi_chembl.molecule_synonyms_23.molregno', 'bigquery-public-data.ebi_chembl.products_23.trade_name', 'bigquery-public-data.ebi_chembl.research_companies_23.company'}</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
@@ -14924,10 +14924,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>26.21081799500098</v>
+        <v>26.28506042400841</v>
       </c>
       <c r="E173" t="n">
-        <v>1906</v>
+        <v>1848</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -14963,7 +14963,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ebi_chembl.docs_29', 'bigquery-public-data.ebi_chembl.activities_29', 'bigquery-public-data.ebi_chembl.compound_properties_29', 'bigquery-public-data.ebi_chembl.compound_structures_29'}</t>
+          <t>{'bigquery-public-data.ebi_chembl.docs_29', 'bigquery-public-data.ebi_chembl.compound_properties_29', 'bigquery-public-data.ebi_chembl.compound_structures_29', 'bigquery-public-data.ebi_chembl.activities_29'}</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
@@ -14978,7 +14978,7 @@
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ebi_chembl.compound_structures_29.molregno', 'bigquery-public-data.ebi_chembl.activities_29.assay_id', 'bigquery-public-data.ebi_chembl.compound_properties_29.heavy_atoms', 'bigquery-public-data.ebi_chembl.activities_29.standard_value', 'bigquery-public-data.ebi_chembl.activities_29.pchembl_value', 'bigquery-public-data.ebi_chembl.compound_structures_29.canonical_smiles', 'bigquery-public-data.ebi_chembl.activities_29.standard_relation', 'bigquery-public-data.ebi_chembl.compound_properties_29.molregno', 'bigquery-public-data.ebi_chembl.activities_29.activity_id', 'bigquery-public-data.ebi_chembl.activities_29.standard_type', 'bigquery-public-data.ebi_chembl.docs_29.doc_id', 'bigquery-public-data.ebi_chembl.activities_29.molregno', 'bigquery-public-data.ebi_chembl.activities_29.doc_id', 'bigquery-public-data.ebi_chembl.docs_29.journal', 'bigquery-public-data.ebi_chembl.docs_29.first_page', 'bigquery-public-data.ebi_chembl.docs_29.year'}</t>
+          <t>{'bigquery-public-data.ebi_chembl.docs_29.year', 'bigquery-public-data.ebi_chembl.docs_29.journal', 'bigquery-public-data.ebi_chembl.activities_29.standard_type', 'bigquery-public-data.ebi_chembl.docs_29.first_page', 'bigquery-public-data.ebi_chembl.compound_properties_29.heavy_atoms', 'bigquery-public-data.ebi_chembl.activities_29.activity_id', 'bigquery-public-data.ebi_chembl.compound_structures_29.molregno', 'bigquery-public-data.ebi_chembl.activities_29.assay_id', 'bigquery-public-data.ebi_chembl.compound_structures_29.canonical_smiles', 'bigquery-public-data.ebi_chembl.activities_29.standard_relation', 'bigquery-public-data.ebi_chembl.compound_properties_29.molregno', 'bigquery-public-data.ebi_chembl.activities_29.standard_value', 'bigquery-public-data.ebi_chembl.docs_29.doc_id', 'bigquery-public-data.ebi_chembl.activities_29.doc_id', 'bigquery-public-data.ebi_chembl.activities_29.molregno', 'bigquery-public-data.ebi_chembl.activities_29.pchembl_value'}</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
@@ -15008,10 +15008,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>17.17097072099568</v>
+        <v>18.19035768200411</v>
       </c>
       <c r="E174" t="n">
-        <v>1169</v>
+        <v>1070</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -15047,7 +15047,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.fdic_banks.institutions', 'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.fdic_banks.locations', 'bigquery-public-data.census_utility.fips_codes_states'}</t>
+          <t>{'bigquery-public-data.fdic_banks.institutions', 'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.census_utility.fips_codes_states', 'bigquery-public-data.fdic_banks.locations'}</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.fdic_banks.institutions.zip_code', 'bigquery-public-data.fdic_banks.institutions.state_fips_code', 'bigquery-public-data.census_utility.fips_codes_states.state_fips_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_fips_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.fdic_banks.locations.zip_code', 'bigquery-public-data.fdic_banks.institutions.institution_name', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom', 'bigquery-public-data.fdic_banks.locations.institution_name'}</t>
+          <t>{'bigquery-public-data.census_utility.fips_codes_states.state_fips_code', 'bigquery-public-data.fdic_banks.locations.zip_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_fips_code', 'bigquery-public-data.fdic_banks.institutions.state_fips_code', 'bigquery-public-data.fdic_banks.institutions.zip_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.fdic_banks.institutions.institution_name', 'bigquery-public-data.fdic_banks.locations.institution_name'}</t>
         </is>
       </c>
       <c r="T174" t="inlineStr">
@@ -15092,10 +15092,10 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>24.86544605800009</v>
+        <v>17.90185448597185</v>
       </c>
       <c r="E175" t="n">
-        <v>999</v>
+        <v>939</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -15131,7 +15131,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national', 'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.fdic_banks.locations', 'bigquery-public-data.census_utility.fips_codes_states'}</t>
+          <t>{'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.census_utility.fips_codes_states', 'bigquery-public-data.fdic_banks.locations', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national'}</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_utility.fips_codes_states.state_fips_code', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.geo_id', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_fips_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.state_fips_code', 'bigquery-public-data.fdic_banks.locations.zip_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.blockgroup_geom', 'bigquery-public-data.fdic_banks.locations.branch_name', 'bigquery-public-data.fdic_banks.locations.institution_name'}</t>
+          <t>{'bigquery-public-data.fdic_banks.locations.branch_name', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.state_fips_code', 'bigquery-public-data.census_utility.fips_codes_states.state_fips_code', 'bigquery-public-data.fdic_banks.locations.zip_code', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.blockgroup_geom', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.geo_id', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_fips_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.fdic_banks.locations.institution_name'}</t>
         </is>
       </c>
       <c r="T175" t="inlineStr">
@@ -15176,10 +15176,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>16.48994312199648</v>
+        <v>19.24179461697349</v>
       </c>
       <c r="E176" t="n">
-        <v>1167</v>
+        <v>1097</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -15260,10 +15260,10 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>17.4078224679979</v>
+        <v>18.88958429999184</v>
       </c>
       <c r="E177" t="n">
-        <v>1004</v>
+        <v>950</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -15299,7 +15299,7 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_debt.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_health_population.country_summary'}</t>
+          <t>{'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_intl_debt.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary'}</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_name', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_name', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.region'}</t>
         </is>
       </c>
       <c r="T177" t="inlineStr">
@@ -15344,10 +15344,10 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>15.18430204299511</v>
+        <v>17.9641432830249</v>
       </c>
       <c r="E178" t="n">
-        <v>958</v>
+        <v>1003</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_debt.country_summary', 'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_wdi.indicators_data', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary'}</t>
+          <t>{'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_intl_debt.country_summary', 'bigquery-public-data.world_bank_wdi.indicators_data', 'bigquery-public-data.world_bank_wdi.country_summary'}</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.short_name', 'bigquery-public-data.world_bank_intl_education.country_summary.income_group', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.income_group', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.indicators_data.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.income_group', 'bigquery-public-data.world_bank_intl_debt.country_summary.short_name', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.income_group', 'bigquery-public-data.world_bank_intl_education.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.short_name', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code'}</t>
+          <t>{'bigquery-public-data.world_bank_wdi.indicators_data.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.income_group', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.world_bank_intl_debt.country_summary.income_group', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_intl_education.country_summary.income_group', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.income_group'}</t>
         </is>
       </c>
       <c r="T178" t="inlineStr">
@@ -15428,10 +15428,10 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>12.88010187499458</v>
+        <v>13.66720367001835</v>
       </c>
       <c r="E179" t="n">
-        <v>794</v>
+        <v>743</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -15467,7 +15467,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_debt.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_health_population.country_summary'}</t>
+          <t>{'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_intl_debt.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary'}</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
@@ -15482,7 +15482,7 @@
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_code', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_code', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.region'}</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
@@ -15512,10 +15512,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>13.17086631600978</v>
+        <v>15.34119376301533</v>
       </c>
       <c r="E180" t="n">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -15551,7 +15551,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_debt.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_health_population.country_summary'}</t>
+          <t>{'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_intl_debt.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary'}</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_name', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_name', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.region'}</t>
         </is>
       </c>
       <c r="T180" t="inlineStr">
@@ -15596,10 +15596,10 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>16.57056200700754</v>
+        <v>18.42972578696208</v>
       </c>
       <c r="E181" t="n">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_debt.country_summary', 'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_wdi.indicators_data', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary'}</t>
+          <t>{'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_intl_debt.country_summary', 'bigquery-public-data.world_bank_wdi.indicators_data', 'bigquery-public-data.world_bank_wdi.country_summary'}</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.short_name', 'bigquery-public-data.world_bank_intl_education.country_summary.income_group', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.income_group', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.indicators_data.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.income_group', 'bigquery-public-data.world_bank_intl_debt.country_summary.short_name', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.income_group', 'bigquery-public-data.world_bank_intl_education.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.short_name', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code'}</t>
+          <t>{'bigquery-public-data.world_bank_wdi.indicators_data.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.income_group', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.world_bank_intl_debt.country_summary.income_group', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_intl_education.country_summary.income_group', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.income_group'}</t>
         </is>
       </c>
       <c r="T181" t="inlineStr">
@@ -15680,10 +15680,10 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>13.30475486299838</v>
+        <v>13.93714914500015</v>
       </c>
       <c r="E182" t="n">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -15734,7 +15734,7 @@
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.minor_category', 'bigquery-public-data.london_crime.crime_by_lsoa.year', 'bigquery-public-data.london_crime.crime_by_lsoa.value'}</t>
+          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.year', 'bigquery-public-data.london_crime.crime_by_lsoa.value', 'bigquery-public-data.london_crime.crime_by_lsoa.minor_category'}</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
@@ -15764,10 +15764,10 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>15.2174810180004</v>
+        <v>20.19273229403188</v>
       </c>
       <c r="E183" t="n">
-        <v>1258</v>
+        <v>1286</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -15818,7 +15818,7 @@
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.year', 'bigquery-public-data.london_crime.crime_by_lsoa.month', 'bigquery-public-data.london_crime.crime_by_lsoa.value', 'bigquery-public-data.london_crime.crime_by_lsoa.minor_category', 'bigquery-public-data.london_crime.crime_by_lsoa.major_category', 'bigquery-public-data.london_crime.crime_by_lsoa.borough'}</t>
+          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.year', 'bigquery-public-data.london_crime.crime_by_lsoa.major_category', 'bigquery-public-data.london_crime.crime_by_lsoa.minor_category', 'bigquery-public-data.london_crime.crime_by_lsoa.borough', 'bigquery-public-data.london_crime.crime_by_lsoa.value', 'bigquery-public-data.london_crime.crime_by_lsoa.month'}</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
@@ -15848,10 +15848,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>16.54552962099842</v>
+        <v>16.41457579500275</v>
       </c>
       <c r="E184" t="n">
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.borough', 'bigquery-public-data.london_crime.crime_by_lsoa.major_category', 'bigquery-public-data.london_crime.crime_by_lsoa.value'}</t>
+          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.major_category', 'bigquery-public-data.london_crime.crime_by_lsoa.value', 'bigquery-public-data.london_crime.crime_by_lsoa.borough'}</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
@@ -15932,10 +15932,10 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>17.41160838899668</v>
+        <v>22.34712718101218</v>
       </c>
       <c r="E185" t="n">
-        <v>1144</v>
+        <v>1173</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -15986,7 +15986,7 @@
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>{'data-to-insights.ecommerce.rev_transactions.channelGrouping', 'data-to-insights.ecommerce.rev_transactions.totals_transactions', 'data-to-insights.ecommerce.rev_transactions.geoNetwork_country'}</t>
+          <t>{'data-to-insights.ecommerce.rev_transactions.totals_transactions', 'data-to-insights.ecommerce.rev_transactions.channelGrouping', 'data-to-insights.ecommerce.rev_transactions.geoNetwork_country'}</t>
         </is>
       </c>
       <c r="T185" t="inlineStr">
@@ -16016,10 +16016,10 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>18.43870626200805</v>
+        <v>17.17752601503162</v>
       </c>
       <c r="E186" t="n">
-        <v>951</v>
+        <v>1059</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -16100,10 +16100,10 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>17.1197400480014</v>
+        <v>16.9629503969918</v>
       </c>
       <c r="E187" t="n">
-        <v>936</v>
+        <v>987</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -16184,10 +16184,10 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>16.17981664500257</v>
+        <v>22.50799415295478</v>
       </c>
       <c r="E188" t="n">
-        <v>1101</v>
+        <v>1534</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>{'DEATH.DEATH.DEATHRECORDS', 'DEATH.DEATH.ENTITYAXISCONDITIONS', 'DEATH.DEATH.RACE', 'DEATH.DEATH.ICD10CODE'}</t>
+          <t>{'DEATH.DEATH.ICD10CODE', 'DEATH.DEATH.RACE', 'DEATH.DEATH.DEATHRECORDS', 'DEATH.DEATH.ENTITYAXISCONDITIONS'}</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
@@ -16238,7 +16238,7 @@
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>{'DEATH.DEATH.ICD10CODE.Description', 'DEATH.DEATH.RACE.Description', 'DEATH.DEATH.ICD10CODE.Code', 'DEATH.DEATH.RACE.Code', 'DEATH.DEATH.ENTITYAXISCONDITIONS.DeathRecordId', 'DEATH.DEATH.DEATHRECORDS.Age'}</t>
+          <t>{'DEATH.DEATH.RACE.Description', 'DEATH.DEATH.DEATHRECORDS.Age', 'DEATH.DEATH.ICD10CODE.Description', 'DEATH.DEATH.ICD10CODE.Code', 'DEATH.DEATH.RACE.Code', 'DEATH.DEATH.ENTITYAXISCONDITIONS.DeathRecordId'}</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
@@ -16268,10 +16268,10 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>16.1901760299952</v>
+        <v>19.1961613149615</v>
       </c>
       <c r="E189" t="n">
-        <v>976</v>
+        <v>1001</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -16322,7 +16322,7 @@
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>{'firebase-public-project.analytics_153293282.events_20180915.user_pseudo_id', 'firebase-public-project.analytics_153293282.events_20180915.event_timestamp', 'firebase-public-project.analytics_153293282.events_20180915.event_params'}</t>
+          <t>{'firebase-public-project.analytics_153293282.events_20180915.event_params', 'firebase-public-project.analytics_153293282.events_20180915.user_pseudo_id', 'firebase-public-project.analytics_153293282.events_20180915.event_timestamp'}</t>
         </is>
       </c>
       <c r="T189" t="inlineStr">
@@ -16352,10 +16352,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>17.71178710699314</v>
+        <v>20.2958224559552</v>
       </c>
       <c r="E190" t="n">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -16436,10 +16436,10 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>21.91185462099384</v>
+        <v>23.64230190601666</v>
       </c>
       <c r="E191" t="n">
-        <v>1299</v>
+        <v>1512</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>{'orders', 'order_items', 'customers'}</t>
+          <t>{'customers', 'orders', 'order_items'}</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>{'orders.customer_id', 'order_items.order_id', 'orders.order_id', 'customers.customer_unique_id', 'orders.order_purchase_timestamp', 'customers.customer_id', 'order_items.price', 'orders.order_status'}</t>
+          <t>{'customers.customer_unique_id', 'order_items.order_id', 'order_items.price', 'orders.order_purchase_timestamp', 'orders.customer_id', 'orders.order_id', 'customers.customer_id', 'orders.order_status'}</t>
         </is>
       </c>
       <c r="T191" t="inlineStr">
@@ -16520,10 +16520,10 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>13.78580733099079</v>
+        <v>16.43113402597373</v>
       </c>
       <c r="E192" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -16559,7 +16559,7 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>{'orders', 'order_payments', 'customers'}</t>
+          <t>{'customers', 'order_payments', 'orders'}</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
@@ -16574,7 +16574,7 @@
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>{'order_payments.order_id', 'orders.customer_id', 'customers.customer_id', 'orders.order_id', 'customers.customer_unique_id', 'order_payments.payment_value', 'orders.order_purchase_timestamp'}</t>
+          <t>{'orders.order_id', 'customers.customer_unique_id', 'order_payments.order_id', 'order_payments.payment_value', 'customers.customer_id', 'orders.order_purchase_timestamp', 'orders.customer_id'}</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
@@ -16604,10 +16604,10 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>15.6625602109998</v>
+        <v>14.7502322140499</v>
       </c>
       <c r="E193" t="n">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>{'batting', 'player'}</t>
+          <t>{'player', 'batting'}</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
@@ -16658,7 +16658,7 @@
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>{'batting.hr', 'player.name_given', 'batting.h', 'player.player_id', 'batting.player_id', 'batting.r', 'batting.g'}</t>
+          <t>{'batting.h', 'batting.g', 'batting.player_id', 'player.name_given', 'player.player_id', 'batting.hr', 'batting.r'}</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
@@ -16688,7 +16688,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>11.98494770898833</v>
+        <v>16.54285487998277</v>
       </c>
       <c r="E194" t="n">
         <v>691</v>
@@ -16742,7 +16742,7 @@
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>{'collisions.collision_date', 'collisions.case_id', 'collisions.pcf_violation_category'}</t>
+          <t>{'collisions.case_id', 'collisions.pcf_violation_category', 'collisions.collision_date'}</t>
         </is>
       </c>
       <c r="T194" t="inlineStr">
@@ -16772,10 +16772,10 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>13.86504631199932</v>
+        <v>15.75299189501675</v>
       </c>
       <c r="E195" t="n">
-        <v>662</v>
+        <v>712</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -16811,7 +16811,7 @@
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>{'Matches', 'Promotions', 'Belts', 'Cards', 'Locations', 'Wrestlers', 'Events'}</t>
+          <t>{'Promotions', 'Matches', 'Wrestlers', 'Locations', 'Events', 'Belts', 'Cards'}</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
@@ -16826,7 +16826,7 @@
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>{'Events.name', 'Matches.title_id', 'Locations.name', 'Promotions.id', 'Matches.duration', 'Matches.card_id', 'Locations.id', 'Belts.name', 'Matches.loser_id', 'Wrestlers.name', 'Promotions.name', 'Belts.id', 'Events.id', 'Cards.promotion_id', 'Cards.event_id', 'Matches.id', 'Cards.location_id', 'Wrestlers.id', 'Cards.id', 'Matches.win_type', 'Matches.winner_id'}</t>
+          <t>{'Cards.id', 'Wrestlers.id', 'Belts.name', 'Promotions.name', 'Matches.id', 'Wrestlers.name', 'Matches.winner_id', 'Events.id', 'Promotions.id', 'Locations.name', 'Matches.win_type', 'Matches.duration', 'Matches.card_id', 'Cards.location_id', 'Cards.promotion_id', 'Matches.title_id', 'Matches.loser_id', 'Belts.id', 'Cards.event_id', 'Events.name', 'Locations.id'}</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
@@ -16856,10 +16856,10 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>13.48987922300876</v>
+        <v>17.45071419596206</v>
       </c>
       <c r="E196" t="n">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -16895,7 +16895,7 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>{'ball_by_ball', 'batsman_scored', 'player_match', 'player', 'match'}</t>
+          <t>{'ball_by_ball', 'batsman_scored', 'player_match', 'match', 'player'}</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>{'batsman_scored.runs_scored', 'player.player_name', 'player_match.player_id', 'player.player_id', 'match.match_id', 'ball_by_ball.striker', 'batsman_scored.match_id', 'player_match.match_id', 'ball_by_ball.match_id', 'batsman_scored.over_id', 'batsman_scored.ball_id', 'ball_by_ball.innings_no', 'match.team_1', 'match.team_2', 'batsman_scored.innings_no', 'player_match.team_id', 'match.match_winner', 'ball_by_ball.ball_id', 'ball_by_ball.over_id'}</t>
+          <t>{'batsman_scored.runs_scored', 'batsman_scored.ball_id', 'player_match.match_id', 'player_match.player_id', 'ball_by_ball.match_id', 'match.match_id', 'ball_by_ball.innings_no', 'ball_by_ball.over_id', 'ball_by_ball.striker', 'batsman_scored.innings_no', 'player_match.team_id', 'player.player_id', 'batsman_scored.over_id', 'match.team_1', 'batsman_scored.match_id', 'match.team_2', 'match.match_winner', 'player.player_name', 'ball_by_ball.ball_id'}</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
@@ -16940,10 +16940,10 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>13.10498417199415</v>
+        <v>14.4176217270433</v>
       </c>
       <c r="E197" t="n">
-        <v>706</v>
+        <v>738</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>{'ball_by_ball', 'batsman_scored', 'player', 'match'}</t>
+          <t>{'match', 'player', 'ball_by_ball', 'batsman_scored'}</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>{'batsman_scored.ball_id', 'batsman_scored.runs_scored', 'player.player_name', 'ball_by_ball.innings_no', 'batsman_scored.innings_no', 'match.season_id', 'player.player_id', 'match.match_id', 'ball_by_ball.striker', 'batsman_scored.match_id', 'ball_by_ball.ball_id', 'ball_by_ball.match_id', 'ball_by_ball.over_id', 'batsman_scored.over_id'}</t>
+          <t>{'ball_by_ball.innings_no', 'ball_by_ball.over_id', 'batsman_scored.ball_id', 'batsman_scored.runs_scored', 'batsman_scored.innings_no', 'ball_by_ball.striker', 'batsman_scored.over_id', 'player.player_id', 'batsman_scored.match_id', 'ball_by_ball.match_id', 'match.season_id', 'player.player_name', 'match.match_id', 'ball_by_ball.ball_id'}</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
@@ -17024,10 +17024,10 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>14.38868424198881</v>
+        <v>14.45334898302099</v>
       </c>
       <c r="E198" t="n">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -17063,7 +17063,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>{'olist_orders', 'olist_customers', 'olist_order_payments'}</t>
+          <t>{'olist_order_payments', 'olist_customers', 'olist_orders'}</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
@@ -17078,7 +17078,7 @@
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>{'olist_customers.customer_id', 'olist_order_payments.order_id', 'olist_orders.order_id', 'olist_order_payments.payment_value', 'olist_orders.customer_id', 'olist_orders.order_status', 'olist_customers.customer_city', 'olist_customers.customer_state', 'olist_customers.customer_unique_id'}</t>
+          <t>{'olist_orders.order_status', 'olist_customers.customer_id', 'olist_orders.customer_id', 'olist_order_payments.payment_value', 'olist_order_payments.order_id', 'olist_orders.order_id', 'olist_customers.customer_unique_id', 'olist_customers.customer_state', 'olist_customers.customer_city'}</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
@@ -17108,10 +17108,10 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>13.75135641099769</v>
+        <v>18.98183090100065</v>
       </c>
       <c r="E199" t="n">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>{'film_category', 'film_actor', 'category', 'actor', 'language', 'film'}</t>
+          <t>{'film_category', 'category', 'actor', 'film', 'film_actor', 'language'}</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
@@ -17162,7 +17162,7 @@
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>{'film.rating', 'actor.first_name', 'actor.last_name', 'film_category.film_id', 'film.language_id', 'language.language_id', 'film.film_id', 'film_actor.film_id', 'actor.actor_id', 'film_category.category_id', 'film_actor.actor_id', 'film.length', 'category.category_id', 'film.release_year', 'language.name', 'category.name'}</t>
+          <t>{'actor.actor_id', 'category.category_id', 'film.rating', 'actor.first_name', 'language.language_id', 'film_actor.film_id', 'film.release_year', 'film.film_id', 'film.language_id', 'film_category.category_id', 'actor.last_name', 'film_actor.actor_id', 'film_category.film_id', 'language.name', 'film.length', 'category.name'}</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
@@ -17192,10 +17192,10 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>19.93417307200434</v>
+        <v>22.5059418650344</v>
       </c>
       <c r="E200" t="n">
-        <v>1498</v>
+        <v>1508</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>{'film_category', 'inventory', 'rental', 'city', 'category', 'customer', 'film', 'address'}</t>
+          <t>{'customer', 'city', 'film_category', 'category', 'film', 'inventory', 'address', 'rental'}</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>{'customer.customer_id', 'address.city_id', 'film_category.film_id', 'film.film_id', 'city.city_id', 'film_category.category_id', 'rental.rental_date', 'inventory.inventory_id', 'category.category_id', 'rental.inventory_id', 'city.city', 'rental.customer_id', 'address.address_id', 'inventory.film_id', 'category.name', 'rental.return_date', 'customer.address_id'}</t>
+          <t>{'city.city', 'category.category_id', 'customer.customer_id', 'customer.address_id', 'rental.rental_date', 'inventory.inventory_id', 'rental.customer_id', 'film.film_id', 'address.city_id', 'rental.return_date', 'rental.inventory_id', 'city.city_id', 'address.address_id', 'film_category.category_id', 'film_category.film_id', 'inventory.film_id', 'category.name'}</t>
         </is>
       </c>
       <c r="T200" t="inlineStr">
@@ -17276,10 +17276,10 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>12.27277036099986</v>
+        <v>15.15707878599642</v>
       </c>
       <c r="E201" t="n">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -17330,7 +17330,7 @@
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>{'hardware_dim_product.product_code', 'hardware_dim_product.segment', 'hardware_fact_sales_monthly.fiscal_year', 'hardware_fact_sales_monthly.product_code'}</t>
+          <t>{'hardware_fact_sales_monthly.product_code', 'hardware_dim_product.segment', 'hardware_dim_product.product_code', 'hardware_fact_sales_monthly.fiscal_year'}</t>
         </is>
       </c>
       <c r="T201" t="inlineStr">
@@ -17360,10 +17360,10 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>13.16949201999523</v>
+        <v>23.32895637396723</v>
       </c>
       <c r="E202" t="n">
-        <v>685</v>
+        <v>716</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -17414,7 +17414,7 @@
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>{'university_faculty.FacLastName', 'university_faculty.FacFirstName', 'university_faculty.FacSalary', 'university_faculty.FacRank'}</t>
+          <t>{'university_faculty.FacRank', 'university_faculty.FacSalary', 'university_faculty.FacFirstName', 'university_faculty.FacLastName'}</t>
         </is>
       </c>
       <c r="T202" t="inlineStr">
@@ -17444,10 +17444,10 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>15.46917523500451</v>
+        <v>17.33475897501921</v>
       </c>
       <c r="E203" t="n">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -17483,7 +17483,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>{'pizza_clean_customer_orders', 'pizza_toppings', 'pizza_recipes'}</t>
+          <t>{'pizza_clean_customer_orders', 'pizza_recipes', 'pizza_toppings'}</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>{'pizza_clean_customer_orders.exclusions', 'pizza_recipes.pizza_id', 'pizza_clean_customer_orders.order_time', 'pizza_recipes.toppings', 'pizza_clean_customer_orders.pizza_id', 'pizza_clean_customer_orders.extras', 'pizza_clean_customer_orders.order_id', 'pizza_toppings.topping_name', 'pizza_clean_customer_orders.customer_id', 'pizza_toppings.topping_id'}</t>
+          <t>{'pizza_clean_customer_orders.pizza_id', 'pizza_clean_customer_orders.order_id', 'pizza_clean_customer_orders.exclusions', 'pizza_toppings.topping_id', 'pizza_recipes.toppings', 'pizza_clean_customer_orders.extras', 'pizza_clean_customer_orders.order_time', 'pizza_recipes.pizza_id', 'pizza_toppings.topping_name', 'pizza_clean_customer_orders.customer_id'}</t>
         </is>
       </c>
       <c r="T203" t="inlineStr">
@@ -17528,10 +17528,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>12.12162734799495</v>
+        <v>12.95982970600016</v>
       </c>
       <c r="E204" t="n">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>{'pizza_clean_customer_orders', 'pizza_clean_runner_orders'}</t>
+          <t>{'pizza_clean_runner_orders', 'pizza_clean_customer_orders'}</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
@@ -17582,7 +17582,7 @@
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>{'pizza_clean_runner_orders.cancellation', 'pizza_clean_runner_orders.order_id', 'pizza_clean_customer_orders.pizza_id', 'pizza_clean_customer_orders.extras', 'pizza_clean_customer_orders.order_id'}</t>
+          <t>{'pizza_clean_customer_orders.pizza_id', 'pizza_clean_customer_orders.order_id', 'pizza_clean_runner_orders.order_id', 'pizza_clean_runner_orders.cancellation', 'pizza_clean_customer_orders.extras'}</t>
         </is>
       </c>
       <c r="T204" t="inlineStr">
@@ -17612,7 +17612,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>16.12545290499111</v>
+        <v>15.75741732900497</v>
       </c>
       <c r="E205" t="n">
         <v>918</v>
@@ -17651,7 +17651,7 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>{'shopping_cart_page_hierarchy', 'shopping_cart_events'}</t>
+          <t>{'shopping_cart_events', 'shopping_cart_page_hierarchy'}</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
@@ -17666,7 +17666,7 @@
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>{'shopping_cart_page_hierarchy.page_id', 'shopping_cart_events.event_type', 'shopping_cart_events.visit_id', 'shopping_cart_events.page_id', 'shopping_cart_page_hierarchy.page_name', 'shopping_cart_page_hierarchy.product_id'}</t>
+          <t>{'shopping_cart_page_hierarchy.product_id', 'shopping_cart_events.visit_id', 'shopping_cart_page_hierarchy.page_id', 'shopping_cart_events.event_type', 'shopping_cart_events.page_id', 'shopping_cart_page_hierarchy.page_name'}</t>
         </is>
       </c>
       <c r="T205" t="inlineStr">
@@ -17696,10 +17696,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>13.53924579400336</v>
+        <v>14.63373210903956</v>
       </c>
       <c r="E206" t="n">
-        <v>727</v>
+        <v>777</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -17750,7 +17750,7 @@
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>{'interest_map.interest_name', 'interest_metrics.month_year', 'interest_metrics.composition', 'interest_metrics.interest_id', 'interest_map.id'}</t>
+          <t>{'interest_metrics.composition', 'interest_map.id', 'interest_map.interest_name', 'interest_metrics.month_year', 'interest_metrics.interest_id'}</t>
         </is>
       </c>
       <c r="T206" t="inlineStr">
@@ -17780,10 +17780,10 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>12.27823116499349</v>
+        <v>16.16414756199811</v>
       </c>
       <c r="E207" t="n">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -17864,10 +17864,10 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>16.09362978600257</v>
+        <v>13.67278285697103</v>
       </c>
       <c r="E208" t="n">
-        <v>651</v>
+        <v>677</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -17903,7 +17903,7 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>{'Person', 'M_Cast', 'M_Director'}</t>
+          <t>{'M_Director', 'Person', 'M_Cast'}</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>{'Person.PID', 'Person.Name', 'M_Cast.MID', 'M_Cast.PID', 'M_Director.PID', 'M_Director.MID'}</t>
+          <t>{'M_Director.MID', 'Person.PID', 'Person.Name', 'M_Cast.PID', 'M_Cast.MID', 'M_Director.PID'}</t>
         </is>
       </c>
       <c r="T208" t="inlineStr">
@@ -17948,10 +17948,10 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>17.92557235700951</v>
+        <v>16.87022108497331</v>
       </c>
       <c r="E209" t="n">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -18002,7 +18002,7 @@
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>{'Musical_Styles.StyleName', 'Musical_Preferences.PreferenceSeq', 'Musical_Preferences.StyleID', 'Musical_Styles.StyleID'}</t>
+          <t>{'Musical_Preferences.PreferenceSeq', 'Musical_Preferences.StyleID', 'Musical_Styles.StyleName', 'Musical_Styles.StyleID'}</t>
         </is>
       </c>
       <c r="T209" t="inlineStr">
@@ -18032,10 +18032,10 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>15.53289344500809</v>
+        <v>16.61977185902651</v>
       </c>
       <c r="E210" t="n">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t>{'payment.customer_id', 'payment.payment_date', 'payment.amount'}</t>
+          <t>{'payment.amount', 'payment.payment_date', 'payment.customer_id'}</t>
         </is>
       </c>
       <c r="T210" t="inlineStr">
@@ -18116,10 +18116,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>15.07216025699745</v>
+        <v>13.74691912700655</v>
       </c>
       <c r="E211" t="n">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -18170,7 +18170,7 @@
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>{'rental.rental_id', 'rental.rental_date', 'rental.staff_id', 'staff.staff_id', 'staff.store_id'}</t>
+          <t>{'rental.staff_id', 'rental.rental_date', 'staff.store_id', 'staff.staff_id', 'rental.rental_id'}</t>
         </is>
       </c>
       <c r="T211" t="inlineStr">
@@ -18200,10 +18200,10 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>15.69421420700382</v>
+        <v>13.90784330898896</v>
       </c>
       <c r="E212" t="n">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>{'stores', 'hubs', 'orders'}</t>
+          <t>{'stores', 'orders', 'hubs'}</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -18254,7 +18254,7 @@
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>{'hubs.hub_id', 'orders.order_status', 'orders.order_created_month', 'stores.hub_id', 'stores.store_id', 'hubs.hub_name', 'orders.store_id'}</t>
+          <t>{'orders.order_status', 'orders.store_id', 'hubs.hub_name', 'stores.hub_id', 'orders.order_created_month', 'stores.store_id', 'hubs.hub_id'}</t>
         </is>
       </c>
       <c r="T212" t="inlineStr">
@@ -18284,10 +18284,10 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>14.7115174359933</v>
+        <v>18.36157290596748</v>
       </c>
       <c r="E213" t="n">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -18323,7 +18323,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>{'match_view', 'Player', 'Team', 'Match', 'League'}</t>
+          <t>{'match_view', 'Match', 'Team', 'Player', 'League'}</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>{'Match.away_player_6', 'match_view.home_team_goal', 'Match.home_player_1', 'Match.home_player_10', 'Team.team_long_name', 'Match.home_player_11', 'Match.away_player_9', 'Match.away_player_10', 'Match.away_team_api_id', 'Player.player_api_id', 'match_view.home_team', 'Match.away_player_1', 'Match.home_player_2', 'Match.goal', 'Match.away_team_goal', 'Match.home_player_3', 'match_view.goal', 'Match.home_team_goal', 'Match.away_player_4', 'Match.card', 'Match.away_player_2', 'Match.league_id', 'match_view.match_api_id', 'Match.match_api_id', 'Match.home_player_7', 'match_view.id', 'Match.id', 'match_view.away_team_goal', 'Match.away_player_5', 'Match.home_player_6', 'Match.home_player_8', 'Match.home_player_9', 'Match.home_team_api_id', 'Match.season', 'Match.away_player_8', 'match_view.league', 'Match.home_player_5', 'League.name', 'Match.away_player_11', 'Match.home_player_4', 'match_view.season', 'Player.player_name', 'Match.away_player_3', 'Team.team_api_id', 'match_view.card', 'Team.id', 'League.id', 'match_view.away_team', 'Match.away_player_7', 'Player.id'}</t>
+          <t>{'Match.id', 'Match.away_player_8', 'match_view.season', 'match_view.home_team', 'Match.home_player_6', 'Player.id', 'Match.away_player_2', 'Match.home_player_3', 'Team.id', 'Match.away_player_5', 'Match.away_player_9', 'Match.home_player_7', 'Match.card', 'Match.away_player_1', 'Player.player_name', 'Match.home_player_1', 'Match.away_team_goal', 'match_view.match_api_id', 'Player.player_api_id', 'Match.match_api_id', 'match_view.home_team_goal', 'Team.team_long_name', 'Match.league_id', 'Match.away_player_10', 'match_view.goal', 'match_view.id', 'Match.home_player_4', 'Match.home_team_goal', 'Match.home_player_8', 'Match.goal', 'match_view.away_team', 'Match.home_player_9', 'Match.away_player_7', 'match_view.league', 'Match.away_player_6', 'Match.season', 'match_view.card', 'Team.team_api_id', 'Match.away_player_4', 'Match.away_player_3', 'Match.home_player_11', 'match_view.away_team_goal', 'Match.away_team_api_id', 'Match.home_team_api_id', 'Match.away_player_11', 'Match.home_player_5', 'Match.home_player_2', 'Match.home_player_10', 'League.name', 'League.id'}</t>
         </is>
       </c>
       <c r="T213" t="inlineStr">
@@ -18407,7 +18407,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>{'results', 'drivers', 'races', 'constructors'}</t>
+          <t>{'constructors', 'drivers', 'races', 'results'}</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
@@ -18422,12 +18422,12 @@
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>{'races.year', 'constructors.name', 'results.race_id', 'drivers.driver_id', 'drivers.surname', 'constructors.constructor_id', 'races.name', 'results.constructor_id', 'results.points', 'races.race_id', 'results.driver_id', 'drivers.forename'}</t>
+          <t>{'races.race_id', 'races.year', 'constructors.name', 'results.driver_id', 'results.race_id', 'drivers.surname', 'races.name', 'constructors.constructor_id', 'drivers.forename', 'results.constructor_id', 'results.points', 'drivers.driver_id'}</t>
         </is>
       </c>
       <c r="T214" t="inlineStr">
         <is>
-          <t>{'data-to-insights.ecommerce.web_analytics.fullVisitorId', 'data-to-insights.ecommerce.web_analytics.totals.transactions', 'data-to-insights.ecommerce.web_analytics.totals'}</t>
+          <t>{'data-to-insights.ecommerce.web_analytics.totals.transactions', 'data-to-insights.ecommerce.web_analytics.totals', 'data-to-insights.ecommerce.web_analytics.fullVisitorId'}</t>
         </is>
       </c>
       <c r="U214" t="n">
@@ -18452,10 +18452,10 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>16.49286059400765</v>
+        <v>18.92909337201854</v>
       </c>
       <c r="E215" t="n">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -18506,7 +18506,7 @@
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>{'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.DATE_VALID_STD', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.COUNTRY', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.POSTAL_CODE', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.TOT_SNOWFALL_IN'}</t>
+          <t>{'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.TOT_SNOWFALL_IN', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.POSTAL_CODE', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.DATE_VALID_STD', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.COUNTRY'}</t>
         </is>
       </c>
       <c r="T215" t="inlineStr">
@@ -18536,10 +18536,10 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>16.92524214700097</v>
+        <v>20.01100485603092</v>
       </c>
       <c r="E216" t="n">
-        <v>1189</v>
+        <v>1298</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -18590,7 +18590,7 @@
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>{'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_TIMESERIES.ID_RSSD', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES.ID_RSSD', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES.NAME'}</t>
+          <t>{'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES.NAME', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_TIMESERIES.ID_RSSD', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES.ID_RSSD'}</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
@@ -18620,10 +18620,10 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>14.80210628799978</v>
+        <v>15.60609333496541</v>
       </c>
       <c r="E217" t="n">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -18674,7 +18674,7 @@
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>{'FINANCE__ECONOMICS.CYBERSYN.STOCK_PRICE_TIMESERIES.TICKER', 'FINANCE__ECONOMICS.CYBERSYN.STOCK_PRICE_TIMESERIES.DATE'}</t>
+          <t>{'FINANCE__ECONOMICS.CYBERSYN.STOCK_PRICE_TIMESERIES.DATE', 'FINANCE__ECONOMICS.CYBERSYN.STOCK_PRICE_TIMESERIES.TICKER'}</t>
         </is>
       </c>
       <c r="T217" t="inlineStr">
@@ -18704,10 +18704,10 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>16.90444375999505</v>
+        <v>20.88364929700037</v>
       </c>
       <c r="E218" t="n">
-        <v>1101</v>
+        <v>1039</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>{'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.DATE_OF_LOSS', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.CONTENTS_DAMAGE_AMOUNT', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.NFIP_COMMUNITY_NAME', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.BUILDING_DAMAGE_AMOUNT'}</t>
+          <t>{'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.CONTENTS_DAMAGE_AMOUNT', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.NFIP_COMMUNITY_NAME', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.BUILDING_DAMAGE_AMOUNT', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.DATE_OF_LOSS'}</t>
         </is>
       </c>
       <c r="T218" t="inlineStr">
@@ -18788,10 +18788,10 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>14.60045340500074</v>
+        <v>21.84941407496808</v>
       </c>
       <c r="E219" t="n">
-        <v>1150</v>
+        <v>1172</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -18827,7 +18827,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>{'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW'}</t>
+          <t>{'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW'}</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
@@ -18842,7 +18842,7 @@
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>{'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.DEVICE_MODEL', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.BROWSER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.CARRIER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.BROWSER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.DEVICE_MODEL', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.CARRIER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.PLATFORM'}</t>
+          <t>{'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.DEVICE_MODEL', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.CARRIER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.BROWSER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.DEVICE_MODEL', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.BROWSER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.CARRIER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.MESSAGE_VARIATION_ID'}</t>
         </is>
       </c>
       <c r="T219" t="inlineStr">
@@ -18872,10 +18872,10 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>14.98412876100338</v>
+        <v>16.98151284904452</v>
       </c>
       <c r="E220" t="n">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -18911,7 +18911,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>{'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS'}</t>
+          <t>{'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS'}</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
@@ -18926,7 +18926,7 @@
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>{'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.NUMBER', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.GEO_ID', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX.GEO_ID', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.VALUE', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.RELATED_GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.STREET', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.STREET_TYPE', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.GEO_ID'}</t>
+          <t>{'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX.GEO_ID', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.VALUE', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.STREET', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.GEO_ID', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.RELATED_GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.GEO_ID', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.STREET_TYPE', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.NUMBER'}</t>
         </is>
       </c>
       <c r="T220" t="inlineStr">
@@ -18956,10 +18956,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>15.72236820100807</v>
+        <v>21.32517806801479</v>
       </c>
       <c r="E221" t="n">
-        <v>1122</v>
+        <v>1019</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>{'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021'}</t>
+          <t>{'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography'}</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
@@ -19010,7 +19010,7 @@
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t>{'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021.BlockGroupID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.BlockGroupID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.StateCountyTractID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021.CensusValue', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.BlockGroupPolygon'}</t>
+          <t>{'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.BlockGroupPolygon', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021.BlockGroupID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021.CensusValue', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.StateCountyTractID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.BlockGroupID'}</t>
         </is>
       </c>
       <c r="T221" t="inlineStr">
@@ -19040,10 +19040,10 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>17.95782195200445</v>
+        <v>21.73388824303402</v>
       </c>
       <c r="E222" t="n">
-        <v>1327</v>
+        <v>1086</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -19079,7 +19079,7 @@
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>{'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.LU_GeographyExpanded', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021_ByZip', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Dim_CensusMetrics', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021'}</t>
+          <t>{'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.LU_GeographyExpanded', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Dim_CensusMetrics', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021_ByZip', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021'}</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
@@ -19094,7 +19094,7 @@
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>{'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.TotalStatePopulation', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021_ByZip.ZipCode', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.LU_GeographyExpanded.ZipCode', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.StateBenchmarkValue', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.StateAbbrev'}</t>
+          <t>{'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.StateBenchmarkValue', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021_ByZip.ZipCode', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.LU_GeographyExpanded.ZipCode', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.TotalStatePopulation', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.StateAbbrev'}</t>
         </is>
       </c>
       <c r="T222" t="inlineStr">
